--- a/static/uploads/mau/hopdong/nt1/duoi_o2/hdtv.xlsx
+++ b/static/uploads/mau/hopdong/nt1/duoi_o2/hdtv.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Khanh\Desktop\HRM\static\uploads\mau\hopdong\nt1\duoi_o2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Downloads\nt1\nt1\duoi_o2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1172A77-FE66-40A5-BEB5-4E3C828D9B56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
   </bookViews>
   <sheets>
     <sheet name="MẪU IN HỢP ĐỒNG LAO ĐỘNG" sheetId="2" r:id="rId1"/>
@@ -422,7 +421,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000000000"/>
   </numFmts>
@@ -1061,14 +1060,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:X110"/>
+  <dimension ref="A1:X111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:X31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G44" sqref="G44:J44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1533,11 +1532,6 @@
     </row>
     <row r="16" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
-      <c r="B16" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
       <c r="E16" s="13" t="s">
         <v>30</v>
       </c>
@@ -1731,101 +1725,101 @@
     </row>
     <row r="22" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
-      <c r="B22" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="13"/>
-      <c r="H22" s="13"/>
-      <c r="I22" s="13"/>
-      <c r="J22" s="13"/>
-      <c r="K22" s="13"/>
-      <c r="L22" s="13"/>
-      <c r="M22" s="13"/>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13"/>
-      <c r="Q22" s="13"/>
-      <c r="R22" s="13"/>
-      <c r="S22" s="13"/>
-      <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="13"/>
-      <c r="W22" s="13"/>
-      <c r="X22" s="13"/>
+      <c r="B22" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="2"/>
+      <c r="Q22" s="2"/>
+      <c r="R22" s="2"/>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="2"/>
+      <c r="X22" s="2"/>
     </row>
     <row r="23" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
-      <c r="B23" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="6"/>
-      <c r="L23" s="6"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="6"/>
-      <c r="O23" s="6"/>
-      <c r="P23" s="6"/>
-      <c r="Q23" s="6"/>
-      <c r="R23" s="6"/>
-      <c r="S23" s="6"/>
-      <c r="T23" s="6"/>
-      <c r="U23" s="6"/>
-      <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-      <c r="X23" s="6"/>
+      <c r="B23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="13"/>
+      <c r="F23" s="13"/>
+      <c r="G23" s="13"/>
+      <c r="H23" s="13"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="13"/>
+      <c r="L23" s="13"/>
+      <c r="M23" s="13"/>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+      <c r="R23" s="13"/>
+      <c r="S23" s="13"/>
+      <c r="T23" s="13"/>
+      <c r="U23" s="13"/>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
     </row>
     <row r="24" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
-      <c r="B24" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
+      <c r="B24" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+      <c r="I24" s="6"/>
+      <c r="J24" s="6"/>
+      <c r="K24" s="6"/>
+      <c r="L24" s="6"/>
+      <c r="M24" s="6"/>
+      <c r="N24" s="6"/>
+      <c r="O24" s="6"/>
+      <c r="P24" s="6"/>
+      <c r="Q24" s="6"/>
+      <c r="R24" s="6"/>
+      <c r="S24" s="6"/>
+      <c r="T24" s="6"/>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
     </row>
     <row r="25" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="H25" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="I25" s="5"/>
       <c r="J25" s="5"/>
       <c r="K25" s="5"/>
@@ -1841,12 +1835,12 @@
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
       <c r="W25" s="5"/>
-      <c r="X25" s="2"/>
+      <c r="X25" s="5"/>
     </row>
     <row r="26" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
@@ -1869,12 +1863,12 @@
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
-      <c r="X26" s="5"/>
+      <c r="X26" s="2"/>
     </row>
     <row r="27" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
@@ -1902,7 +1896,7 @@
     <row r="28" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
@@ -1930,7 +1924,7 @@
     <row r="29" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
@@ -1957,13 +1951,13 @@
     </row>
     <row r="30" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="5" t="s">
-        <v>50</v>
-      </c>
+      <c r="B30" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
       <c r="I30" s="5"/>
@@ -1985,74 +1979,74 @@
     </row>
     <row r="31" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
-      <c r="B31" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="5"/>
+      <c r="M31" s="5"/>
+      <c r="N31" s="5"/>
+      <c r="O31" s="5"/>
+      <c r="P31" s="5"/>
+      <c r="Q31" s="5"/>
+      <c r="R31" s="5"/>
+      <c r="S31" s="5"/>
+      <c r="T31" s="5"/>
+      <c r="U31" s="5"/>
+      <c r="V31" s="5"/>
+      <c r="W31" s="5"/>
+      <c r="X31" s="5"/>
     </row>
     <row r="32" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H32" s="5"/>
-      <c r="I32" s="5"/>
-      <c r="J32" s="5"/>
-      <c r="K32" s="5"/>
-      <c r="L32" s="5"/>
-      <c r="M32" s="5"/>
-      <c r="N32" s="5"/>
-      <c r="O32" s="5"/>
-      <c r="P32" s="5"/>
-      <c r="Q32" s="5"/>
-      <c r="R32" s="5"/>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="5"/>
-      <c r="X32" s="5"/>
+      <c r="G32" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+      <c r="U32" s="11"/>
+      <c r="V32" s="11"/>
+      <c r="W32" s="11"/>
+      <c r="X32" s="11"/>
     </row>
     <row r="33" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="5"/>
+      <c r="G33" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="H33" s="5"/>
       <c r="I33" s="5"/>
       <c r="J33" s="5"/>
@@ -2073,64 +2067,64 @@
     </row>
     <row r="34" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
-      <c r="B34" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="C34" s="6"/>
-      <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
-      <c r="I34" s="6"/>
-      <c r="J34" s="6"/>
-      <c r="K34" s="6"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-      <c r="N34" s="6"/>
-      <c r="O34" s="6"/>
-      <c r="P34" s="6"/>
-      <c r="Q34" s="6"/>
-      <c r="R34" s="6"/>
-      <c r="S34" s="6"/>
-      <c r="T34" s="6"/>
-      <c r="U34" s="6"/>
-      <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-      <c r="X34" s="6"/>
+      <c r="B34" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="5"/>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="5"/>
+      <c r="M34" s="5"/>
+      <c r="N34" s="5"/>
+      <c r="O34" s="5"/>
+      <c r="P34" s="5"/>
+      <c r="Q34" s="5"/>
+      <c r="R34" s="5"/>
+      <c r="S34" s="5"/>
+      <c r="T34" s="5"/>
+      <c r="U34" s="5"/>
+      <c r="V34" s="5"/>
+      <c r="W34" s="5"/>
+      <c r="X34" s="5"/>
     </row>
     <row r="35" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
-      <c r="B35" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="5"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="5"/>
-      <c r="G35" s="5"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="5"/>
-      <c r="K35" s="5"/>
-      <c r="L35" s="5"/>
-      <c r="M35" s="5"/>
-      <c r="N35" s="5"/>
-      <c r="O35" s="5"/>
-      <c r="P35" s="5"/>
-      <c r="Q35" s="5"/>
-      <c r="R35" s="5"/>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="5"/>
-      <c r="X35" s="5"/>
+      <c r="B35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+      <c r="V35" s="6"/>
+      <c r="W35" s="6"/>
+      <c r="X35" s="6"/>
     </row>
     <row r="36" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
@@ -2158,7 +2152,7 @@
     <row r="37" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
@@ -2186,7 +2180,7 @@
     <row r="38" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
@@ -2211,213 +2205,213 @@
       <c r="W38" s="5"/>
       <c r="X38" s="5"/>
     </row>
-    <row r="39" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="2"/>
-      <c r="Q39" s="2"/>
-      <c r="R39" s="2"/>
-      <c r="S39" s="2"/>
-      <c r="T39" s="2"/>
-      <c r="U39" s="2"/>
-      <c r="V39" s="2"/>
-      <c r="W39" s="2"/>
-      <c r="X39" s="2"/>
-    </row>
-    <row r="40" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
+      <c r="E39" s="5"/>
+      <c r="F39" s="5"/>
+      <c r="G39" s="5"/>
+      <c r="H39" s="5"/>
+      <c r="I39" s="5"/>
+      <c r="J39" s="5"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="5"/>
+      <c r="M39" s="5"/>
+      <c r="N39" s="5"/>
+      <c r="O39" s="5"/>
+      <c r="P39" s="5"/>
+      <c r="Q39" s="5"/>
+      <c r="R39" s="5"/>
+      <c r="S39" s="5"/>
+      <c r="T39" s="5"/>
+      <c r="U39" s="5"/>
+      <c r="V39" s="5"/>
+      <c r="W39" s="5"/>
+      <c r="X39" s="5"/>
+    </row>
+    <row r="40" spans="1:24" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="B40" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="C40" s="6"/>
-      <c r="D40" s="6"/>
-      <c r="E40" s="6"/>
-      <c r="F40" s="6"/>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
-      <c r="I40" s="6"/>
-      <c r="J40" s="6"/>
-      <c r="K40" s="6"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-      <c r="N40" s="6"/>
-      <c r="O40" s="6"/>
-      <c r="P40" s="6"/>
-      <c r="Q40" s="6"/>
-      <c r="R40" s="6"/>
-      <c r="S40" s="6"/>
-      <c r="T40" s="6"/>
-      <c r="U40" s="6"/>
-      <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-      <c r="X40" s="6"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="2"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
     </row>
     <row r="41" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="B41" s="9" t="s">
-        <v>62</v>
-      </c>
-      <c r="C41" s="9"/>
-      <c r="D41" s="9"/>
-      <c r="E41" s="9"/>
-      <c r="F41" s="9"/>
-      <c r="G41" s="9"/>
-      <c r="H41" s="9"/>
-      <c r="I41" s="9"/>
-      <c r="J41" s="9"/>
-      <c r="K41" s="9"/>
-      <c r="L41" s="9"/>
-      <c r="M41" s="9"/>
-      <c r="N41" s="9"/>
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
-      <c r="W41" s="9"/>
-      <c r="X41" s="9"/>
+      <c r="B41" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="6"/>
+      <c r="I41" s="6"/>
+      <c r="J41" s="6"/>
+      <c r="K41" s="6"/>
+      <c r="L41" s="6"/>
+      <c r="M41" s="6"/>
+      <c r="N41" s="6"/>
+      <c r="O41" s="6"/>
+      <c r="P41" s="6"/>
+      <c r="Q41" s="6"/>
+      <c r="R41" s="6"/>
+      <c r="S41" s="6"/>
+      <c r="T41" s="6"/>
+      <c r="U41" s="6"/>
+      <c r="V41" s="6"/>
+      <c r="W41" s="6"/>
+      <c r="X41" s="6"/>
     </row>
     <row r="42" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" s="6" t="s">
+      <c r="B42" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="9"/>
+      <c r="H42" s="9"/>
+      <c r="I42" s="9"/>
+      <c r="J42" s="9"/>
+      <c r="K42" s="9"/>
+      <c r="L42" s="9"/>
+      <c r="M42" s="9"/>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+      <c r="V42" s="9"/>
+      <c r="W42" s="9"/>
+      <c r="X42" s="9"/>
+    </row>
+    <row r="43" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
-      <c r="E42" s="6"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="11" t="s">
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11"/>
-      <c r="J42" s="11"/>
-      <c r="K42" s="11"/>
-      <c r="L42" s="11"/>
-      <c r="M42" s="11"/>
-      <c r="N42" s="11"/>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
-      <c r="R42" s="11"/>
-      <c r="S42" s="11"/>
-      <c r="T42" s="11"/>
-      <c r="U42" s="11"/>
-      <c r="V42" s="11"/>
-      <c r="W42" s="11"/>
-      <c r="X42" s="11"/>
-    </row>
-    <row r="43" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="12" t="s">
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
+      <c r="W43" s="11"/>
+      <c r="X43" s="11"/>
+    </row>
+    <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="C43" s="12"/>
-      <c r="D43" s="12"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="2"/>
-      <c r="L43" s="2"/>
-      <c r="M43" s="2"/>
-      <c r="N43" s="4"/>
-      <c r="O43" s="4"/>
-      <c r="P43" s="4"/>
-      <c r="Q43" s="4"/>
-      <c r="R43" s="4"/>
-      <c r="S43" s="4"/>
-      <c r="T43" s="4"/>
-      <c r="U43" s="4"/>
-      <c r="V43" s="4"/>
-      <c r="W43" s="4"/>
-      <c r="X43" s="4"/>
-    </row>
-    <row r="44" spans="1:24" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
-      <c r="H44" s="2"/>
-      <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
-      <c r="R44" s="2"/>
-      <c r="S44" s="2"/>
-      <c r="T44" s="2"/>
-      <c r="U44" s="2"/>
-      <c r="V44" s="2"/>
-      <c r="W44" s="2"/>
-      <c r="X44" s="2"/>
-    </row>
-    <row r="45" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="N44" s="4"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="4"/>
+      <c r="Q44" s="4"/>
+      <c r="R44" s="4"/>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+    </row>
+    <row r="45" spans="1:24" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
-      <c r="B45" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="6"/>
-      <c r="H45" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="I45" s="5"/>
-      <c r="J45" s="5"/>
-      <c r="K45" s="5"/>
-      <c r="L45" s="5"/>
-      <c r="M45" s="5"/>
-      <c r="N45" s="5"/>
-      <c r="O45" s="5"/>
-      <c r="P45" s="5"/>
-      <c r="Q45" s="5"/>
-      <c r="R45" s="5"/>
-      <c r="S45" s="5"/>
-      <c r="T45" s="5"/>
-      <c r="U45" s="5"/>
-      <c r="V45" s="5"/>
-      <c r="W45" s="5"/>
-      <c r="X45" s="5"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="2"/>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="M45" s="2"/>
+      <c r="N45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
     </row>
     <row r="46" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
-      <c r="B46" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="5"/>
-      <c r="H46" s="5"/>
+      <c r="B46" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="5" t="s">
+        <v>67</v>
+      </c>
       <c r="I46" s="5"/>
       <c r="J46" s="5"/>
       <c r="K46" s="5"/>
@@ -2438,7 +2432,7 @@
     <row r="47" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
@@ -2465,36 +2459,36 @@
     </row>
     <row r="48" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
-      <c r="B48" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="C48" s="6"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="6"/>
-      <c r="H48" s="6"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="2"/>
-      <c r="L48" s="2"/>
-      <c r="M48" s="2"/>
-      <c r="N48" s="2"/>
-      <c r="O48" s="2"/>
-      <c r="P48" s="2"/>
-      <c r="Q48" s="2"/>
-      <c r="R48" s="2"/>
-      <c r="S48" s="2"/>
-      <c r="T48" s="2"/>
-      <c r="U48" s="2"/>
-      <c r="V48" s="2"/>
-      <c r="W48" s="2"/>
-      <c r="X48" s="2"/>
+      <c r="B48" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C48" s="5"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="5"/>
+      <c r="F48" s="5"/>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="5"/>
+      <c r="M48" s="5"/>
+      <c r="N48" s="5"/>
+      <c r="O48" s="5"/>
+      <c r="P48" s="5"/>
+      <c r="Q48" s="5"/>
+      <c r="R48" s="5"/>
+      <c r="S48" s="5"/>
+      <c r="T48" s="5"/>
+      <c r="U48" s="5"/>
+      <c r="V48" s="5"/>
+      <c r="W48" s="5"/>
+      <c r="X48" s="5"/>
     </row>
     <row r="49" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
@@ -2504,39 +2498,39 @@
       <c r="H49" s="6"/>
       <c r="I49" s="6"/>
       <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="N49" s="5"/>
-      <c r="O49" s="5"/>
-      <c r="P49" s="5"/>
-      <c r="Q49" s="5"/>
-      <c r="R49" s="5"/>
-      <c r="S49" s="5"/>
-      <c r="T49" s="5"/>
-      <c r="U49" s="5"/>
-      <c r="V49" s="5"/>
-      <c r="W49" s="5"/>
-      <c r="X49" s="5"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="2"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="2"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
     </row>
     <row r="50" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
-      <c r="B50" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="5"/>
-      <c r="I50" s="5"/>
-      <c r="J50" s="5"/>
-      <c r="K50" s="5"/>
-      <c r="L50" s="5"/>
-      <c r="M50" s="5"/>
+      <c r="B50" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="6"/>
+      <c r="H50" s="6"/>
+      <c r="I50" s="6"/>
+      <c r="J50" s="6"/>
+      <c r="K50" s="6"/>
+      <c r="L50" s="6"/>
+      <c r="M50" s="5" t="s">
+        <v>72</v>
+      </c>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="5"/>
@@ -2547,68 +2541,68 @@
       <c r="U50" s="5"/>
       <c r="V50" s="5"/>
       <c r="W50" s="5"/>
-      <c r="X50" s="2"/>
+      <c r="X50" s="5"/>
     </row>
     <row r="51" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
-      <c r="B51" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-      <c r="I51" s="6"/>
-      <c r="J51" s="6"/>
-      <c r="K51" s="2"/>
-      <c r="L51" s="2"/>
-      <c r="M51" s="2"/>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2"/>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2"/>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
-      <c r="V51" s="2"/>
-      <c r="W51" s="2"/>
+      <c r="B51" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="5"/>
+      <c r="D51" s="5"/>
+      <c r="E51" s="5"/>
+      <c r="F51" s="5"/>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="5"/>
+      <c r="M51" s="5"/>
+      <c r="N51" s="5"/>
+      <c r="O51" s="5"/>
+      <c r="P51" s="5"/>
+      <c r="Q51" s="5"/>
+      <c r="R51" s="5"/>
+      <c r="S51" s="5"/>
+      <c r="T51" s="5"/>
+      <c r="U51" s="5"/>
+      <c r="V51" s="5"/>
+      <c r="W51" s="5"/>
       <c r="X51" s="2"/>
     </row>
     <row r="52" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
-      <c r="B52" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C52" s="5"/>
-      <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="5"/>
-      <c r="G52" s="5"/>
-      <c r="H52" s="5"/>
-      <c r="I52" s="5"/>
-      <c r="J52" s="5"/>
-      <c r="K52" s="5"/>
-      <c r="L52" s="5"/>
-      <c r="M52" s="5"/>
-      <c r="N52" s="5"/>
-      <c r="O52" s="5"/>
-      <c r="P52" s="5"/>
-      <c r="Q52" s="5"/>
-      <c r="R52" s="5"/>
-      <c r="S52" s="5"/>
-      <c r="T52" s="5"/>
-      <c r="U52" s="5"/>
-      <c r="V52" s="5"/>
-      <c r="W52" s="5"/>
-      <c r="X52" s="5"/>
+      <c r="B52" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="6"/>
+      <c r="H52" s="6"/>
+      <c r="I52" s="6"/>
+      <c r="J52" s="6"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
+      <c r="O52" s="2"/>
+      <c r="P52" s="2"/>
+      <c r="Q52" s="2"/>
+      <c r="R52" s="2"/>
+      <c r="S52" s="2"/>
+      <c r="T52" s="2"/>
+      <c r="U52" s="2"/>
+      <c r="V52" s="2"/>
+      <c r="W52" s="2"/>
+      <c r="X52" s="2"/>
     </row>
     <row r="53" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
@@ -2633,66 +2627,66 @@
       <c r="W53" s="5"/>
       <c r="X53" s="5"/>
     </row>
-    <row r="54" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
-      <c r="B54" s="6" t="s">
+      <c r="B54" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="5"/>
+      <c r="D54" s="5"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="5"/>
+      <c r="M54" s="5"/>
+      <c r="N54" s="5"/>
+      <c r="O54" s="5"/>
+      <c r="P54" s="5"/>
+      <c r="Q54" s="5"/>
+      <c r="R54" s="5"/>
+      <c r="S54" s="5"/>
+      <c r="T54" s="5"/>
+      <c r="U54" s="5"/>
+      <c r="V54" s="5"/>
+      <c r="W54" s="5"/>
+      <c r="X54" s="5"/>
+    </row>
+    <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="C54" s="6"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="6"/>
-      <c r="G54" s="6"/>
-      <c r="H54" s="6"/>
-      <c r="I54" s="6"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="2"/>
-      <c r="L54" s="2"/>
-      <c r="M54" s="2"/>
-      <c r="N54" s="2"/>
-      <c r="O54" s="2"/>
-      <c r="P54" s="2"/>
-      <c r="Q54" s="2"/>
-      <c r="R54" s="2"/>
-      <c r="S54" s="2"/>
-      <c r="T54" s="2"/>
-      <c r="U54" s="2"/>
-      <c r="V54" s="2"/>
-      <c r="W54" s="2"/>
-      <c r="X54" s="2"/>
-    </row>
-    <row r="55" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C55" s="5"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="5"/>
-      <c r="H55" s="5"/>
-      <c r="I55" s="5"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="5"/>
-      <c r="L55" s="5"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-      <c r="R55" s="5"/>
-      <c r="S55" s="5"/>
-      <c r="T55" s="5"/>
-      <c r="U55" s="5"/>
-      <c r="V55" s="5"/>
-      <c r="W55" s="5"/>
-      <c r="X55" s="5"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="6"/>
+      <c r="I55" s="6"/>
+      <c r="J55" s="6"/>
+      <c r="K55" s="2"/>
+      <c r="L55" s="2"/>
+      <c r="M55" s="2"/>
+      <c r="N55" s="2"/>
+      <c r="O55" s="2"/>
+      <c r="P55" s="2"/>
+      <c r="Q55" s="2"/>
+      <c r="R55" s="2"/>
+      <c r="S55" s="2"/>
+      <c r="T55" s="2"/>
+      <c r="U55" s="2"/>
+      <c r="V55" s="2"/>
+      <c r="W55" s="2"/>
+      <c r="X55" s="2"/>
     </row>
     <row r="56" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -2717,10 +2711,10 @@
       <c r="W56" s="5"/>
       <c r="X56" s="5"/>
     </row>
-    <row r="57" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -2745,94 +2739,94 @@
       <c r="W57" s="5"/>
       <c r="X57" s="5"/>
     </row>
-    <row r="58" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
-      <c r="B58" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="C58" s="6"/>
-      <c r="D58" s="6"/>
-      <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
-      <c r="G58" s="6"/>
-      <c r="H58" s="6"/>
-      <c r="I58" s="6"/>
-      <c r="J58" s="6"/>
-      <c r="K58" s="6"/>
-      <c r="L58" s="6"/>
-      <c r="M58" s="6"/>
-      <c r="N58" s="6"/>
-      <c r="O58" s="6"/>
-      <c r="P58" s="6"/>
-      <c r="Q58" s="6"/>
-      <c r="R58" s="6"/>
-      <c r="S58" s="6"/>
-      <c r="T58" s="6"/>
-      <c r="U58" s="6"/>
-      <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-      <c r="X58" s="6"/>
+      <c r="B58" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
+      <c r="I58" s="5"/>
+      <c r="J58" s="5"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="5"/>
+      <c r="M58" s="5"/>
+      <c r="N58" s="5"/>
+      <c r="O58" s="5"/>
+      <c r="P58" s="5"/>
+      <c r="Q58" s="5"/>
+      <c r="R58" s="5"/>
+      <c r="S58" s="5"/>
+      <c r="T58" s="5"/>
+      <c r="U58" s="5"/>
+      <c r="V58" s="5"/>
+      <c r="W58" s="5"/>
+      <c r="X58" s="5"/>
     </row>
     <row r="59" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
-      <c r="B59" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C59" s="5"/>
-      <c r="D59" s="5"/>
-      <c r="E59" s="5"/>
-      <c r="F59" s="5"/>
-      <c r="G59" s="5"/>
-      <c r="H59" s="5"/>
-      <c r="I59" s="5"/>
-      <c r="J59" s="5"/>
-      <c r="K59" s="5"/>
-      <c r="L59" s="5"/>
-      <c r="M59" s="5"/>
-      <c r="N59" s="5"/>
-      <c r="O59" s="5"/>
-      <c r="P59" s="5"/>
-      <c r="Q59" s="5"/>
-      <c r="R59" s="5"/>
-      <c r="S59" s="5"/>
-      <c r="T59" s="5"/>
-      <c r="U59" s="5"/>
-      <c r="V59" s="5"/>
-      <c r="W59" s="5"/>
-      <c r="X59" s="5"/>
+      <c r="B59" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C59" s="6"/>
+      <c r="D59" s="6"/>
+      <c r="E59" s="6"/>
+      <c r="F59" s="6"/>
+      <c r="G59" s="6"/>
+      <c r="H59" s="6"/>
+      <c r="I59" s="6"/>
+      <c r="J59" s="6"/>
+      <c r="K59" s="6"/>
+      <c r="L59" s="6"/>
+      <c r="M59" s="6"/>
+      <c r="N59" s="6"/>
+      <c r="O59" s="6"/>
+      <c r="P59" s="6"/>
+      <c r="Q59" s="6"/>
+      <c r="R59" s="6"/>
+      <c r="S59" s="6"/>
+      <c r="T59" s="6"/>
+      <c r="U59" s="6"/>
+      <c r="V59" s="6"/>
+      <c r="W59" s="6"/>
+      <c r="X59" s="6"/>
     </row>
     <row r="60" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
-      <c r="B60" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="C60" s="6"/>
-      <c r="D60" s="6"/>
-      <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
-      <c r="G60" s="6"/>
-      <c r="H60" s="6"/>
-      <c r="I60" s="6"/>
-      <c r="J60" s="6"/>
-      <c r="K60" s="6"/>
-      <c r="L60" s="6"/>
-      <c r="M60" s="6"/>
-      <c r="N60" s="6"/>
-      <c r="O60" s="6"/>
-      <c r="P60" s="6"/>
-      <c r="Q60" s="6"/>
-      <c r="R60" s="6"/>
-      <c r="S60" s="6"/>
-      <c r="T60" s="6"/>
-      <c r="U60" s="6"/>
-      <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-      <c r="X60" s="6"/>
+      <c r="B60" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="5"/>
+      <c r="D60" s="5"/>
+      <c r="E60" s="5"/>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="5"/>
+      <c r="M60" s="5"/>
+      <c r="N60" s="5"/>
+      <c r="O60" s="5"/>
+      <c r="P60" s="5"/>
+      <c r="Q60" s="5"/>
+      <c r="R60" s="5"/>
+      <c r="S60" s="5"/>
+      <c r="T60" s="5"/>
+      <c r="U60" s="5"/>
+      <c r="V60" s="5"/>
+      <c r="W60" s="5"/>
+      <c r="X60" s="5"/>
     </row>
     <row r="61" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
@@ -2859,36 +2853,36 @@
     </row>
     <row r="62" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
-      <c r="B62" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C62" s="5"/>
-      <c r="D62" s="5"/>
-      <c r="E62" s="5"/>
-      <c r="F62" s="5"/>
-      <c r="G62" s="5"/>
-      <c r="H62" s="5"/>
-      <c r="I62" s="5"/>
-      <c r="J62" s="5"/>
-      <c r="K62" s="5"/>
-      <c r="L62" s="5"/>
-      <c r="M62" s="5"/>
-      <c r="N62" s="5"/>
-      <c r="O62" s="5"/>
-      <c r="P62" s="5"/>
-      <c r="Q62" s="5"/>
-      <c r="R62" s="5"/>
-      <c r="S62" s="5"/>
-      <c r="T62" s="5"/>
-      <c r="U62" s="5"/>
-      <c r="V62" s="5"/>
-      <c r="W62" s="5"/>
-      <c r="X62" s="5"/>
+      <c r="B62" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="6"/>
+      <c r="G62" s="6"/>
+      <c r="H62" s="6"/>
+      <c r="I62" s="6"/>
+      <c r="J62" s="6"/>
+      <c r="K62" s="6"/>
+      <c r="L62" s="6"/>
+      <c r="M62" s="6"/>
+      <c r="N62" s="6"/>
+      <c r="O62" s="6"/>
+      <c r="P62" s="6"/>
+      <c r="Q62" s="6"/>
+      <c r="R62" s="6"/>
+      <c r="S62" s="6"/>
+      <c r="T62" s="6"/>
+      <c r="U62" s="6"/>
+      <c r="V62" s="6"/>
+      <c r="W62" s="6"/>
+      <c r="X62" s="6"/>
     </row>
     <row r="63" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
@@ -2916,7 +2910,7 @@
     <row r="64" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
@@ -2943,36 +2937,36 @@
     </row>
     <row r="65" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
-      <c r="B65" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="C65" s="6"/>
-      <c r="D65" s="6"/>
-      <c r="E65" s="6"/>
-      <c r="F65" s="6"/>
-      <c r="G65" s="6"/>
-      <c r="H65" s="6"/>
-      <c r="I65" s="6"/>
-      <c r="J65" s="6"/>
-      <c r="K65" s="6"/>
-      <c r="L65" s="6"/>
-      <c r="M65" s="6"/>
-      <c r="N65" s="6"/>
-      <c r="O65" s="6"/>
-      <c r="P65" s="6"/>
-      <c r="Q65" s="6"/>
-      <c r="R65" s="6"/>
-      <c r="S65" s="6"/>
-      <c r="T65" s="6"/>
-      <c r="U65" s="6"/>
-      <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
-      <c r="X65" s="6"/>
+      <c r="B65" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="5"/>
+      <c r="M65" s="5"/>
+      <c r="N65" s="5"/>
+      <c r="O65" s="5"/>
+      <c r="P65" s="5"/>
+      <c r="Q65" s="5"/>
+      <c r="R65" s="5"/>
+      <c r="S65" s="5"/>
+      <c r="T65" s="5"/>
+      <c r="U65" s="5"/>
+      <c r="V65" s="5"/>
+      <c r="W65" s="5"/>
+      <c r="X65" s="5"/>
     </row>
     <row r="66" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="6" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
@@ -2999,36 +2993,36 @@
     </row>
     <row r="67" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
-      <c r="B67" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C67" s="5"/>
-      <c r="D67" s="5"/>
-      <c r="E67" s="5"/>
-      <c r="F67" s="5"/>
-      <c r="G67" s="5"/>
-      <c r="H67" s="5"/>
-      <c r="I67" s="5"/>
-      <c r="J67" s="5"/>
-      <c r="K67" s="5"/>
-      <c r="L67" s="5"/>
-      <c r="M67" s="5"/>
-      <c r="N67" s="5"/>
-      <c r="O67" s="5"/>
-      <c r="P67" s="5"/>
-      <c r="Q67" s="5"/>
-      <c r="R67" s="5"/>
-      <c r="S67" s="5"/>
-      <c r="T67" s="5"/>
-      <c r="U67" s="5"/>
-      <c r="V67" s="5"/>
-      <c r="W67" s="5"/>
-      <c r="X67" s="5"/>
+      <c r="B67" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="6"/>
+      <c r="G67" s="6"/>
+      <c r="H67" s="6"/>
+      <c r="I67" s="6"/>
+      <c r="J67" s="6"/>
+      <c r="K67" s="6"/>
+      <c r="L67" s="6"/>
+      <c r="M67" s="6"/>
+      <c r="N67" s="6"/>
+      <c r="O67" s="6"/>
+      <c r="P67" s="6"/>
+      <c r="Q67" s="6"/>
+      <c r="R67" s="6"/>
+      <c r="S67" s="6"/>
+      <c r="T67" s="6"/>
+      <c r="U67" s="6"/>
+      <c r="V67" s="6"/>
+      <c r="W67" s="6"/>
+      <c r="X67" s="6"/>
     </row>
     <row r="68" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
@@ -3056,7 +3050,7 @@
     <row r="69" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
@@ -3084,7 +3078,7 @@
     <row r="70" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
@@ -3107,12 +3101,12 @@
       <c r="U70" s="5"/>
       <c r="V70" s="5"/>
       <c r="W70" s="5"/>
-      <c r="X70" s="2"/>
+      <c r="X70" s="5"/>
     </row>
     <row r="71" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
@@ -3135,12 +3129,12 @@
       <c r="U71" s="5"/>
       <c r="V71" s="5"/>
       <c r="W71" s="5"/>
-      <c r="X71" s="5"/>
+      <c r="X71" s="2"/>
     </row>
     <row r="72" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="5" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
@@ -3168,7 +3162,7 @@
     <row r="73" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="5" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
@@ -3195,64 +3189,64 @@
     </row>
     <row r="74" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
-      <c r="B74" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="C74" s="9"/>
-      <c r="D74" s="9"/>
-      <c r="E74" s="9"/>
-      <c r="F74" s="9"/>
-      <c r="G74" s="9"/>
-      <c r="H74" s="9"/>
-      <c r="I74" s="9"/>
-      <c r="J74" s="9"/>
-      <c r="K74" s="9"/>
-      <c r="L74" s="9"/>
-      <c r="M74" s="9"/>
-      <c r="N74" s="9"/>
-      <c r="O74" s="9"/>
-      <c r="P74" s="9"/>
-      <c r="Q74" s="9"/>
-      <c r="R74" s="9"/>
-      <c r="S74" s="9"/>
-      <c r="T74" s="9"/>
-      <c r="U74" s="9"/>
-      <c r="V74" s="9"/>
-      <c r="W74" s="9"/>
-      <c r="X74" s="9"/>
+      <c r="B74" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+      <c r="I74" s="5"/>
+      <c r="J74" s="5"/>
+      <c r="K74" s="5"/>
+      <c r="L74" s="5"/>
+      <c r="M74" s="5"/>
+      <c r="N74" s="5"/>
+      <c r="O74" s="5"/>
+      <c r="P74" s="5"/>
+      <c r="Q74" s="5"/>
+      <c r="R74" s="5"/>
+      <c r="S74" s="5"/>
+      <c r="T74" s="5"/>
+      <c r="U74" s="5"/>
+      <c r="V74" s="5"/>
+      <c r="W74" s="5"/>
+      <c r="X74" s="5"/>
     </row>
     <row r="75" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C75" s="5"/>
-      <c r="D75" s="5"/>
-      <c r="E75" s="5"/>
-      <c r="F75" s="5"/>
-      <c r="G75" s="5"/>
-      <c r="H75" s="5"/>
-      <c r="I75" s="5"/>
-      <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
-      <c r="L75" s="5"/>
-      <c r="M75" s="5"/>
-      <c r="N75" s="5"/>
-      <c r="O75" s="5"/>
-      <c r="P75" s="5"/>
-      <c r="Q75" s="5"/>
-      <c r="R75" s="5"/>
-      <c r="S75" s="5"/>
-      <c r="T75" s="5"/>
-      <c r="U75" s="5"/>
-      <c r="V75" s="5"/>
-      <c r="W75" s="5"/>
-      <c r="X75" s="5"/>
+      <c r="B75" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9"/>
+      <c r="F75" s="9"/>
+      <c r="G75" s="9"/>
+      <c r="H75" s="9"/>
+      <c r="I75" s="9"/>
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="9"/>
+      <c r="R75" s="9"/>
+      <c r="S75" s="9"/>
+      <c r="T75" s="9"/>
+      <c r="U75" s="9"/>
+      <c r="V75" s="9"/>
+      <c r="W75" s="9"/>
+      <c r="X75" s="9"/>
     </row>
     <row r="76" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
@@ -3280,7 +3274,7 @@
     <row r="77" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
@@ -3308,7 +3302,7 @@
     <row r="78" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
@@ -3336,7 +3330,7 @@
     <row r="79" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
@@ -3364,7 +3358,7 @@
     <row r="80" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
@@ -3392,7 +3386,7 @@
     <row r="81" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
@@ -3420,7 +3414,7 @@
     <row r="82" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
@@ -3448,7 +3442,7 @@
     <row r="83" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
@@ -3476,7 +3470,7 @@
     <row r="84" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
@@ -3504,7 +3498,7 @@
     <row r="85" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
@@ -3531,36 +3525,36 @@
     </row>
     <row r="86" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
-      <c r="B86" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="C86" s="6"/>
-      <c r="D86" s="6"/>
-      <c r="E86" s="6"/>
-      <c r="F86" s="6"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="6"/>
-      <c r="I86" s="6"/>
-      <c r="J86" s="6"/>
-      <c r="K86" s="6"/>
-      <c r="L86" s="6"/>
-      <c r="M86" s="6"/>
-      <c r="N86" s="6"/>
-      <c r="O86" s="6"/>
-      <c r="P86" s="6"/>
-      <c r="Q86" s="6"/>
-      <c r="R86" s="6"/>
-      <c r="S86" s="6"/>
-      <c r="T86" s="6"/>
-      <c r="U86" s="6"/>
-      <c r="V86" s="6"/>
-      <c r="W86" s="6"/>
-      <c r="X86" s="6"/>
+      <c r="B86" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="C86" s="5"/>
+      <c r="D86" s="5"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5"/>
+      <c r="J86" s="5"/>
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="5"/>
+      <c r="O86" s="5"/>
+      <c r="P86" s="5"/>
+      <c r="Q86" s="5"/>
+      <c r="R86" s="5"/>
+      <c r="S86" s="5"/>
+      <c r="T86" s="5"/>
+      <c r="U86" s="5"/>
+      <c r="V86" s="5"/>
+      <c r="W86" s="5"/>
+      <c r="X86" s="5"/>
     </row>
     <row r="87" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
@@ -3587,36 +3581,36 @@
     </row>
     <row r="88" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
-      <c r="B88" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="C88" s="5"/>
-      <c r="D88" s="5"/>
-      <c r="E88" s="5"/>
-      <c r="F88" s="5"/>
-      <c r="G88" s="5"/>
-      <c r="H88" s="5"/>
-      <c r="I88" s="5"/>
-      <c r="J88" s="5"/>
-      <c r="K88" s="5"/>
-      <c r="L88" s="5"/>
-      <c r="M88" s="5"/>
-      <c r="N88" s="5"/>
-      <c r="O88" s="5"/>
-      <c r="P88" s="5"/>
-      <c r="Q88" s="5"/>
-      <c r="R88" s="5"/>
-      <c r="S88" s="5"/>
-      <c r="T88" s="5"/>
-      <c r="U88" s="5"/>
-      <c r="V88" s="5"/>
-      <c r="W88" s="5"/>
-      <c r="X88" s="5"/>
+      <c r="B88" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C88" s="6"/>
+      <c r="D88" s="6"/>
+      <c r="E88" s="6"/>
+      <c r="F88" s="6"/>
+      <c r="G88" s="6"/>
+      <c r="H88" s="6"/>
+      <c r="I88" s="6"/>
+      <c r="J88" s="6"/>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="6"/>
+      <c r="O88" s="6"/>
+      <c r="P88" s="6"/>
+      <c r="Q88" s="6"/>
+      <c r="R88" s="6"/>
+      <c r="S88" s="6"/>
+      <c r="T88" s="6"/>
+      <c r="U88" s="6"/>
+      <c r="V88" s="6"/>
+      <c r="W88" s="6"/>
+      <c r="X88" s="6"/>
     </row>
     <row r="89" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="5" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
@@ -3644,7 +3638,7 @@
     <row r="90" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
@@ -3672,7 +3666,7 @@
     <row r="91" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
@@ -3699,64 +3693,64 @@
     </row>
     <row r="92" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
-      <c r="B92" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="C92" s="6"/>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="6"/>
-      <c r="G92" s="6"/>
-      <c r="H92" s="6"/>
-      <c r="I92" s="6"/>
-      <c r="J92" s="6"/>
-      <c r="K92" s="6"/>
-      <c r="L92" s="6"/>
-      <c r="M92" s="6"/>
-      <c r="N92" s="6"/>
-      <c r="O92" s="6"/>
-      <c r="P92" s="6"/>
-      <c r="Q92" s="6"/>
-      <c r="R92" s="6"/>
-      <c r="S92" s="6"/>
-      <c r="T92" s="6"/>
-      <c r="U92" s="6"/>
-      <c r="V92" s="6"/>
-      <c r="W92" s="6"/>
-      <c r="X92" s="6"/>
+      <c r="B92" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C92" s="5"/>
+      <c r="D92" s="5"/>
+      <c r="E92" s="5"/>
+      <c r="F92" s="5"/>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="5"/>
+      <c r="O92" s="5"/>
+      <c r="P92" s="5"/>
+      <c r="Q92" s="5"/>
+      <c r="R92" s="5"/>
+      <c r="S92" s="5"/>
+      <c r="T92" s="5"/>
+      <c r="U92" s="5"/>
+      <c r="V92" s="5"/>
+      <c r="W92" s="5"/>
+      <c r="X92" s="5"/>
     </row>
     <row r="93" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
-      <c r="B93" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-      <c r="F93" s="5"/>
-      <c r="G93" s="5"/>
-      <c r="H93" s="5"/>
-      <c r="I93" s="5"/>
-      <c r="J93" s="5"/>
-      <c r="K93" s="5"/>
-      <c r="L93" s="5"/>
-      <c r="M93" s="5"/>
-      <c r="N93" s="5"/>
-      <c r="O93" s="5"/>
-      <c r="P93" s="5"/>
-      <c r="Q93" s="5"/>
-      <c r="R93" s="5"/>
-      <c r="S93" s="5"/>
-      <c r="T93" s="5"/>
-      <c r="U93" s="5"/>
-      <c r="V93" s="5"/>
-      <c r="W93" s="5"/>
-      <c r="X93" s="5"/>
+      <c r="B93" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="6"/>
+      <c r="F93" s="6"/>
+      <c r="G93" s="6"/>
+      <c r="H93" s="6"/>
+      <c r="I93" s="6"/>
+      <c r="J93" s="6"/>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="6"/>
+      <c r="O93" s="6"/>
+      <c r="P93" s="6"/>
+      <c r="Q93" s="6"/>
+      <c r="R93" s="6"/>
+      <c r="S93" s="6"/>
+      <c r="T93" s="6"/>
+      <c r="U93" s="6"/>
+      <c r="V93" s="6"/>
+      <c r="W93" s="6"/>
+      <c r="X93" s="6"/>
     </row>
     <row r="94" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -3784,7 +3778,7 @@
     <row r="95" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="5" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
@@ -3811,64 +3805,64 @@
     </row>
     <row r="96" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
-      <c r="B96" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C96" s="6"/>
-      <c r="D96" s="6"/>
-      <c r="E96" s="6"/>
-      <c r="F96" s="6"/>
-      <c r="G96" s="6"/>
-      <c r="H96" s="6"/>
-      <c r="I96" s="6"/>
-      <c r="J96" s="6"/>
-      <c r="K96" s="6"/>
-      <c r="L96" s="6"/>
-      <c r="M96" s="6"/>
-      <c r="N96" s="6"/>
-      <c r="O96" s="6"/>
-      <c r="P96" s="6"/>
-      <c r="Q96" s="6"/>
-      <c r="R96" s="6"/>
-      <c r="S96" s="6"/>
-      <c r="T96" s="6"/>
-      <c r="U96" s="6"/>
-      <c r="V96" s="6"/>
-      <c r="W96" s="6"/>
-      <c r="X96" s="6"/>
+      <c r="B96" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="5"/>
+      <c r="O96" s="5"/>
+      <c r="P96" s="5"/>
+      <c r="Q96" s="5"/>
+      <c r="R96" s="5"/>
+      <c r="S96" s="5"/>
+      <c r="T96" s="5"/>
+      <c r="U96" s="5"/>
+      <c r="V96" s="5"/>
+      <c r="W96" s="5"/>
+      <c r="X96" s="5"/>
     </row>
     <row r="97" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
-      <c r="B97" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="C97" s="5"/>
-      <c r="D97" s="5"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
-      <c r="K97" s="5"/>
-      <c r="L97" s="5"/>
-      <c r="M97" s="5"/>
-      <c r="N97" s="5"/>
-      <c r="O97" s="5"/>
-      <c r="P97" s="5"/>
-      <c r="Q97" s="5"/>
-      <c r="R97" s="5"/>
-      <c r="S97" s="5"/>
-      <c r="T97" s="5"/>
-      <c r="U97" s="5"/>
-      <c r="V97" s="5"/>
-      <c r="W97" s="5"/>
-      <c r="X97" s="5"/>
+      <c r="B97" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C97" s="6"/>
+      <c r="D97" s="6"/>
+      <c r="E97" s="6"/>
+      <c r="F97" s="6"/>
+      <c r="G97" s="6"/>
+      <c r="H97" s="6"/>
+      <c r="I97" s="6"/>
+      <c r="J97" s="6"/>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="6"/>
+      <c r="O97" s="6"/>
+      <c r="P97" s="6"/>
+      <c r="Q97" s="6"/>
+      <c r="R97" s="6"/>
+      <c r="S97" s="6"/>
+      <c r="T97" s="6"/>
+      <c r="U97" s="6"/>
+      <c r="V97" s="6"/>
+      <c r="W97" s="6"/>
+      <c r="X97" s="6"/>
     </row>
     <row r="98" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
@@ -3896,7 +3890,7 @@
     <row r="99" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
@@ -3924,7 +3918,7 @@
     <row r="100" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
@@ -3951,87 +3945,89 @@
     </row>
     <row r="101" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
-      <c r="B101" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C101" s="7"/>
-      <c r="D101" s="7"/>
-      <c r="E101" s="7"/>
-      <c r="F101" s="7"/>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
-      <c r="I101" s="7"/>
-      <c r="J101" s="7"/>
-      <c r="K101" s="7"/>
-      <c r="L101" s="7"/>
-      <c r="M101" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="N101" s="7"/>
-      <c r="O101" s="7"/>
-      <c r="P101" s="7"/>
-      <c r="Q101" s="7"/>
-      <c r="R101" s="7"/>
-      <c r="S101" s="7"/>
-      <c r="T101" s="7"/>
-      <c r="U101" s="7"/>
-      <c r="V101" s="7"/>
-      <c r="W101" s="7"/>
-      <c r="X101" s="7"/>
+      <c r="B101" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101" s="5"/>
+      <c r="D101" s="5"/>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="5"/>
+      <c r="O101" s="5"/>
+      <c r="P101" s="5"/>
+      <c r="Q101" s="5"/>
+      <c r="R101" s="5"/>
+      <c r="S101" s="5"/>
+      <c r="T101" s="5"/>
+      <c r="U101" s="5"/>
+      <c r="V101" s="5"/>
+      <c r="W101" s="5"/>
+      <c r="X101" s="5"/>
     </row>
     <row r="102" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
-      <c r="B102" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C102" s="8"/>
-      <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="8"/>
-      <c r="I102" s="8"/>
-      <c r="J102" s="8"/>
-      <c r="K102" s="8"/>
-      <c r="L102" s="8"/>
-      <c r="M102" s="8"/>
-      <c r="N102" s="8"/>
-      <c r="O102" s="8"/>
-      <c r="P102" s="8"/>
-      <c r="Q102" s="8"/>
-      <c r="R102" s="8"/>
-      <c r="S102" s="8"/>
-      <c r="T102" s="8"/>
-      <c r="U102" s="8"/>
-      <c r="V102" s="8"/>
-      <c r="W102" s="8"/>
-      <c r="X102" s="8"/>
+      <c r="B102" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="C102" s="7"/>
+      <c r="D102" s="7"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="7"/>
+      <c r="I102" s="7"/>
+      <c r="J102" s="7"/>
+      <c r="K102" s="7"/>
+      <c r="L102" s="7"/>
+      <c r="M102" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="N102" s="7"/>
+      <c r="O102" s="7"/>
+      <c r="P102" s="7"/>
+      <c r="Q102" s="7"/>
+      <c r="R102" s="7"/>
+      <c r="S102" s="7"/>
+      <c r="T102" s="7"/>
+      <c r="U102" s="7"/>
+      <c r="V102" s="7"/>
+      <c r="W102" s="7"/>
+      <c r="X102" s="7"/>
     </row>
     <row r="103" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
-      <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-      <c r="D103" s="2"/>
-      <c r="E103" s="2"/>
-      <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
-      <c r="H103" s="2"/>
-      <c r="I103" s="2"/>
-      <c r="J103" s="2"/>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="2"/>
-      <c r="O103" s="2"/>
-      <c r="P103" s="2"/>
-      <c r="Q103" s="2"/>
-      <c r="R103" s="2"/>
-      <c r="S103" s="2"/>
-      <c r="T103" s="2"/>
-      <c r="U103" s="2"/>
-      <c r="V103" s="2"/>
-      <c r="W103" s="2"/>
-      <c r="X103" s="2"/>
+      <c r="B103" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="C103" s="8"/>
+      <c r="D103" s="8"/>
+      <c r="E103" s="8"/>
+      <c r="F103" s="8"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="8"/>
+      <c r="I103" s="8"/>
+      <c r="J103" s="8"/>
+      <c r="K103" s="8"/>
+      <c r="L103" s="8"/>
+      <c r="M103" s="8"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="8"/>
+      <c r="P103" s="8"/>
+      <c r="Q103" s="8"/>
+      <c r="R103" s="8"/>
+      <c r="S103" s="8"/>
+      <c r="T103" s="8"/>
+      <c r="U103" s="8"/>
+      <c r="V103" s="8"/>
+      <c r="W103" s="8"/>
+      <c r="X103" s="8"/>
     </row>
     <row r="104" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="2"/>
@@ -4115,49 +4111,47 @@
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
-      <c r="D107" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="E107" s="5"/>
-      <c r="F107" s="5"/>
-      <c r="G107" s="5"/>
-      <c r="H107" s="5"/>
-      <c r="I107" s="5"/>
-      <c r="J107" s="5"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
-      <c r="O107" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="P107" s="5"/>
-      <c r="Q107" s="5"/>
-      <c r="R107" s="5"/>
-      <c r="S107" s="5"/>
-      <c r="T107" s="5"/>
-      <c r="U107" s="5"/>
-      <c r="V107" s="5"/>
-      <c r="W107" s="5"/>
-      <c r="X107" s="5"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+      <c r="Q107" s="2"/>
+      <c r="R107" s="2"/>
+      <c r="S107" s="2"/>
+      <c r="T107" s="2"/>
+      <c r="U107" s="2"/>
+      <c r="V107" s="2"/>
+      <c r="W107" s="2"/>
+      <c r="X107" s="2"/>
     </row>
     <row r="108" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-      <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
-      <c r="G108" s="2"/>
-      <c r="H108" s="2"/>
-      <c r="I108" s="2"/>
-      <c r="J108" s="2"/>
+      <c r="D108" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
       <c r="K108" s="2"/>
       <c r="L108" s="2"/>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="P108" s="5"/>
       <c r="Q108" s="5"/>
@@ -4167,7 +4161,7 @@
       <c r="U108" s="5"/>
       <c r="V108" s="5"/>
       <c r="W108" s="5"/>
-      <c r="X108" s="2"/>
+      <c r="X108" s="5"/>
     </row>
     <row r="109" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2"/>
@@ -4185,18 +4179,16 @@
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="P109" s="5"/>
-      <c r="Q109" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="R109" s="6"/>
-      <c r="S109" s="6"/>
-      <c r="T109" s="6"/>
-      <c r="U109" s="6"/>
-      <c r="V109" s="6"/>
-      <c r="W109" s="2"/>
+      <c r="Q109" s="5"/>
+      <c r="R109" s="5"/>
+      <c r="S109" s="5"/>
+      <c r="T109" s="5"/>
+      <c r="U109" s="5"/>
+      <c r="V109" s="5"/>
+      <c r="W109" s="5"/>
       <c r="X109" s="2"/>
     </row>
     <row r="110" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -4215,20 +4207,50 @@
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="P110" s="5"/>
+      <c r="Q110" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="R110" s="6"/>
+      <c r="S110" s="6"/>
+      <c r="T110" s="6"/>
+      <c r="U110" s="6"/>
+      <c r="V110" s="6"/>
+      <c r="W110" s="2"/>
+      <c r="X110" s="2"/>
+    </row>
+    <row r="111" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="2"/>
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+      <c r="G111" s="2"/>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2"/>
+      <c r="N111" s="2"/>
+      <c r="O111" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="P110" s="5"/>
-      <c r="Q110" s="5"/>
-      <c r="R110" s="5"/>
-      <c r="S110" s="5"/>
-      <c r="T110" s="5"/>
-      <c r="U110" s="5"/>
-      <c r="V110" s="5"/>
-      <c r="W110" s="5"/>
-      <c r="X110" s="2"/>
+      <c r="P111" s="5"/>
+      <c r="Q111" s="5"/>
+      <c r="R111" s="5"/>
+      <c r="S111" s="5"/>
+      <c r="T111" s="5"/>
+      <c r="U111" s="5"/>
+      <c r="V111" s="5"/>
+      <c r="W111" s="5"/>
+      <c r="X111" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="147">
+  <mergeCells count="148">
     <mergeCell ref="A1:D2"/>
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="M1:X1"/>
@@ -4261,7 +4283,7 @@
     <mergeCell ref="E14:X14"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="D15:X15"/>
-    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B22:D22"/>
     <mergeCell ref="E16:M16"/>
     <mergeCell ref="N16:O16"/>
     <mergeCell ref="P16:X16"/>
@@ -4270,6 +4292,7 @@
     <mergeCell ref="D18:M18"/>
     <mergeCell ref="N18:P18"/>
     <mergeCell ref="Q18:X18"/>
+    <mergeCell ref="E22:J22"/>
     <mergeCell ref="B19:D19"/>
     <mergeCell ref="E19:M19"/>
     <mergeCell ref="N19:P19"/>
@@ -4282,45 +4305,44 @@
     <mergeCell ref="R21:X21"/>
     <mergeCell ref="B21:C21"/>
     <mergeCell ref="D21:H21"/>
-    <mergeCell ref="B22:X22"/>
     <mergeCell ref="B23:X23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="H24:X24"/>
-    <mergeCell ref="B25:W25"/>
-    <mergeCell ref="B26:X26"/>
+    <mergeCell ref="B24:X24"/>
+    <mergeCell ref="B25:G25"/>
+    <mergeCell ref="H25:X25"/>
+    <mergeCell ref="B26:W26"/>
     <mergeCell ref="B27:X27"/>
     <mergeCell ref="B28:X28"/>
     <mergeCell ref="B29:X29"/>
-    <mergeCell ref="F30:X30"/>
-    <mergeCell ref="B31:F31"/>
+    <mergeCell ref="B30:X30"/>
+    <mergeCell ref="F31:X31"/>
     <mergeCell ref="B32:F32"/>
+    <mergeCell ref="B33:F33"/>
+    <mergeCell ref="G33:X33"/>
+    <mergeCell ref="B34:X34"/>
+    <mergeCell ref="B35:X35"/>
     <mergeCell ref="G32:X32"/>
-    <mergeCell ref="B33:X33"/>
-    <mergeCell ref="B34:X34"/>
-    <mergeCell ref="G31:X31"/>
-    <mergeCell ref="B35:X35"/>
     <mergeCell ref="B36:X36"/>
     <mergeCell ref="B37:X37"/>
     <mergeCell ref="B38:X38"/>
-    <mergeCell ref="B40:X40"/>
+    <mergeCell ref="B39:X39"/>
     <mergeCell ref="B41:X41"/>
-    <mergeCell ref="B42:F42"/>
-    <mergeCell ref="G42:X42"/>
-    <mergeCell ref="B43:E43"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="H45:X45"/>
-    <mergeCell ref="B46:X46"/>
-    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="B42:X42"/>
+    <mergeCell ref="B43:F43"/>
+    <mergeCell ref="G43:X43"/>
+    <mergeCell ref="B44:E44"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="H46:X46"/>
     <mergeCell ref="B47:X47"/>
-    <mergeCell ref="B48:J48"/>
-    <mergeCell ref="B49:L49"/>
-    <mergeCell ref="M49:X49"/>
-    <mergeCell ref="B50:W50"/>
-    <mergeCell ref="B51:J51"/>
-    <mergeCell ref="B52:X52"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="B48:X48"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="B50:L50"/>
+    <mergeCell ref="M50:X50"/>
+    <mergeCell ref="B51:W51"/>
+    <mergeCell ref="B52:J52"/>
     <mergeCell ref="B53:X53"/>
-    <mergeCell ref="B54:J54"/>
-    <mergeCell ref="B55:X55"/>
+    <mergeCell ref="B54:X54"/>
+    <mergeCell ref="B55:J55"/>
     <mergeCell ref="B56:X56"/>
     <mergeCell ref="B57:X57"/>
     <mergeCell ref="B58:X58"/>
@@ -4335,8 +4357,8 @@
     <mergeCell ref="B67:X67"/>
     <mergeCell ref="B68:X68"/>
     <mergeCell ref="B69:X69"/>
-    <mergeCell ref="B70:W70"/>
-    <mergeCell ref="B71:X71"/>
+    <mergeCell ref="B70:X70"/>
+    <mergeCell ref="B71:W71"/>
     <mergeCell ref="B72:X72"/>
     <mergeCell ref="B73:X73"/>
     <mergeCell ref="B74:X74"/>
@@ -4359,30 +4381,31 @@
     <mergeCell ref="B91:X91"/>
     <mergeCell ref="B92:X92"/>
     <mergeCell ref="B93:X93"/>
-    <mergeCell ref="O107:X107"/>
     <mergeCell ref="B94:X94"/>
+    <mergeCell ref="O108:X108"/>
     <mergeCell ref="B95:X95"/>
     <mergeCell ref="B96:X96"/>
     <mergeCell ref="B97:X97"/>
     <mergeCell ref="B98:X98"/>
     <mergeCell ref="B99:X99"/>
-    <mergeCell ref="O108:W108"/>
-    <mergeCell ref="O109:P109"/>
-    <mergeCell ref="Q109:V109"/>
-    <mergeCell ref="O110:W110"/>
     <mergeCell ref="B100:X100"/>
-    <mergeCell ref="B101:L101"/>
-    <mergeCell ref="M101:X101"/>
+    <mergeCell ref="O109:W109"/>
+    <mergeCell ref="O110:P110"/>
+    <mergeCell ref="Q110:V110"/>
+    <mergeCell ref="O111:W111"/>
+    <mergeCell ref="B101:X101"/>
     <mergeCell ref="B102:L102"/>
     <mergeCell ref="M102:X102"/>
-    <mergeCell ref="D107:J107"/>
+    <mergeCell ref="B103:L103"/>
+    <mergeCell ref="M103:X103"/>
+    <mergeCell ref="D108:J108"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.38999998569488525" bottom="0.5899999737739563" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:Y20 A66:Y111 A65 C65:Y65 A22:Y30 A21 I21:Y21 A44:Y64 A43:F43 K43:M43 Y43 A32:Y42 A31:G31 Y31" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:Y15 A67:Y112 A66 C66:Y66 A23:Y31 A21 I21:Y21 A45:Y65 A44:F44 K44:M44 Y44 A33:Y43 A32:G32 Y32 A17:Y20 A16 E16:Y16" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/static/uploads/mau/hopdong/nt1/duoi_o2/hdtv.xlsx
+++ b/static/uploads/mau/hopdong/nt1/duoi_o2/hdtv.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\Phanmem\HRM\static\uploads\mau\hopdong\nt1\duoi_o2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DAT\Desktop\code\working\HRM\static\uploads\mau\hopdong\nt1\duoi_o2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E46558-009A-448B-9001-78F320414573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MẪU IN HỢP ĐỒNG LAO ĐỘNG" sheetId="2" r:id="rId1"/>
@@ -27,401 +28,401 @@
     <t>CỘNG HÒA XÃ HỘI CHỦ NGHĨA VIỆT NAM</t>
   </si>
   <si>
-    <t>Địa chỉ: Rực Liễn - Thuỷ Sơn - Thuỷ Nguyên - Hải Phòng_x000D_
+    <t>Độc lập - Tự do - Hạnh phúc</t>
+  </si>
+  <si>
+    <t>------------------------</t>
+  </si>
+  <si>
+    <t>Số: PC/13362</t>
+  </si>
+  <si>
+    <t>Hải Phòng, ngày 20 tháng 06 năm 2024</t>
+  </si>
+  <si>
+    <t>HỢP ĐỒNG THỬ VIỆC</t>
+  </si>
+  <si>
+    <t>(Căn cứ vào BLLĐ 45/2019/QH 14 và NĐ 145/2020/NĐ-CP, TT 10/2020/TT-BLĐTBXH )</t>
+  </si>
+  <si>
+    <t>Chúng tôi, một bên là</t>
+  </si>
+  <si>
+    <t>Ông/Bà:</t>
+  </si>
+  <si>
+    <t>VŨ THỊ HIỀN</t>
+  </si>
+  <si>
+    <t>Quốc tịch:</t>
+  </si>
+  <si>
+    <t>VIỆT NAM</t>
+  </si>
+  <si>
+    <t>Chức vụ:</t>
+  </si>
+  <si>
+    <t>Trưởng phòng Hành chính Nhân sự</t>
+  </si>
+  <si>
+    <t>Sinh ngày:</t>
+  </si>
+  <si>
+    <t>05/09/1990           Giới tính: Nữ</t>
+  </si>
+  <si>
+    <t>Địa chỉ thường trú:</t>
+  </si>
+  <si>
+    <t>Quyết Tiến 3, An Thắng, An Lão, Hải Phòng</t>
+  </si>
+  <si>
+    <t>Số CCCD:</t>
+  </si>
+  <si>
+    <t>031190008508</t>
+  </si>
+  <si>
+    <t>Cấp ngày:</t>
+  </si>
+  <si>
+    <t>02/03/2022</t>
+  </si>
+  <si>
+    <t>Nơi cấp:</t>
+  </si>
+  <si>
+    <t>Cục cảnh sát</t>
+  </si>
+  <si>
+    <t>Đại diện cho:</t>
+  </si>
+  <si>
+    <t>Địa chỉ:</t>
+  </si>
+  <si>
+    <t>Điện thoại:</t>
+  </si>
+  <si>
+    <t>02253642408</t>
+  </si>
+  <si>
+    <t>Fax:</t>
+  </si>
+  <si>
+    <t>02253642407</t>
+  </si>
+  <si>
+    <t>Và một bên là:</t>
+  </si>
+  <si>
+    <t>NGÔ THỊ THỦY</t>
+  </si>
+  <si>
+    <t>VIỆT NAM</t>
+  </si>
+  <si>
+    <t>20/12/2000</t>
+  </si>
+  <si>
+    <t>Giới tính:</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Duẩn Khê, Long Xuyên, Kinh Môn, Hải Dương</t>
+  </si>
+  <si>
+    <t>23/02/2024</t>
+  </si>
+  <si>
+    <t>Thỏa thuận ký kết hợp đồng thử việc và cam kết làm đúng những điều khoản sau đây:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐIỀU 1: HỢP ĐỒNG VÀ CÔNG VIỆC HỢP ĐỒNG </t>
+  </si>
+  <si>
+    <t>- Thời hạn thử việc:</t>
+  </si>
+  <si>
+    <t>Thử việc 30 ngày</t>
+  </si>
+  <si>
+    <t>Từ ngày 20 tháng 06 năm 2024 đến hết ngày 19 tháng 07 năm 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Theo kết quả đánh giá sau thử việc, người lao động đạt yêu cầu, sẽ được ký hợp đồng lao động với Công ty. </t>
+  </si>
+  <si>
+    <t>Trường hợp không qua thử việc, người lao động sẽ được thanh toán lương và các khoản trợ cấp khác nếu có đến ngày làm việc</t>
+  </si>
+  <si>
+    <t>cuối cùng.</t>
+  </si>
+  <si>
+    <t>+ Các địa điểm khác theo sự phân công của Công ty theo yêu cầu công việc</t>
+  </si>
+  <si>
+    <t>- Chức danh công việc:</t>
+  </si>
+  <si>
+    <t>Công nhân thử việc may</t>
+  </si>
+  <si>
+    <t>- Công việc phải làm:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thực hiện theo bảng mô tả công việc và Các công việc liên quan khác dưới sự phân công  của người </t>
+  </si>
+  <si>
+    <t>quản lý trực tiếp.</t>
+  </si>
+  <si>
+    <t>ĐIỀU 2: THỜI GIAN LÀM VIỆC, THỜI GIAN NGHỈ NGƠI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Thời gian làm việc, làm thêm giờ và thời gian nghỉ ngơi theo nội quy, thỏa ước lao động tập thể của công ty và quy định của </t>
+  </si>
+  <si>
+    <t>pháp luật.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Nghỉ phép năm: Công ty không giải quyết và chi trả phép năm trong thời gian thử việc. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Nghỉ lễ, Tết, việc riêng có hưởng lương: theo quy định của pháp luật và nội quy của công ty. </t>
+  </si>
+  <si>
+    <t>ĐIỀU 3: TIỀN LƯƠNG VÀ CÁC CHẾ ĐỘ PHÚC LỢI</t>
+  </si>
+  <si>
+    <t>1. TIỀN LƯƠNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Mức lương: </t>
+  </si>
+  <si>
+    <t>5,211,000 VNĐ/ tháng</t>
+  </si>
+  <si>
+    <t>- Phụ cấp lương:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Các khoản bổ sung khác: </t>
+  </si>
+  <si>
+    <t>Theo Thỏa ước lao động tập thể, và các thông báo, quy định cụ thể của Công ty (nếu có)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tiền lương được trả sau khi làm đủ số ngày công mỗi tháng dương lịch (người lao động không làm đủ ngày công trong một (01) </t>
+  </si>
+  <si>
+    <t>tháng thì tiền lương được hưởng sẽ là mức lương trừ đi tiền lương ngày nghỉ).</t>
+  </si>
+  <si>
+    <t>2. CÁC CHẾ ĐỘ PHÚC LỢI KHÁC</t>
+  </si>
+  <si>
+    <t>- Tiền hỗ trợ xăng xe/ nhà ở, con nhỏ, thăm hỏi hiếu hỉ, ...:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">thực hiện theo Thỏa ước lao động tập thể và các thông báo </t>
+  </si>
+  <si>
+    <t>cụ thể của Công ty.</t>
+  </si>
+  <si>
+    <t>3.  HÌNH THỨC TRẢ LƯƠNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người lao động được trả lương theo lương thời gian và theo lương tháng. Hàng tháng tiền lương được chuyển khoản trực tiếp </t>
+  </si>
+  <si>
+    <t>vào tài khoản cá nhân của người lao động. Người lao động được nhận phiếu lương từng tháng từ phòng kế toán.</t>
+  </si>
+  <si>
+    <t>4. NGÀY TRẢ LƯƠNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người lao động được trả lương theo tháng vào ngày 10 của tháng tiếp theo. Nếu ngày trả lương trùng vào ngày chủ nhật thì </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lương sẽ được trả vào ngày 11. Trường hợp đặc biệt nếu ngày trả lương rơi vào dịp nghỉ lễ, Tết thì công ty sẽ sắp xếp thời gian </t>
+  </si>
+  <si>
+    <t>thanh toán phù hợp và có thông báo trước cho người lao động.</t>
+  </si>
+  <si>
+    <t>5. TRANG BỊ BẢO HỘ LAO ĐỘNG</t>
+  </si>
+  <si>
+    <t>Người lao động được cấp phát trang thiết bị bảo hộ lao động theo chính sách cấp phát bảo hộ lao động của công ty.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6. BẢO HIỂM XÃ HỘI, BẢO HIỂM THẤT NGHIỆP, BẢO HIỂM Y TẾ, BẢO HIỂM TAI NẠN LAO ĐỘNG - BỆNH </t>
+  </si>
+  <si>
+    <t>NGHỀ NGHIỆP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người lao động ký hợp đồng thử việc không tham gia bảo hiểm trong thời gian thử việc và sẽ được trả thêm cùng lúc với kỳ trả </t>
+  </si>
+  <si>
+    <t xml:space="preserve">lương một khoản tiền tương đương với mức người sử dụng lao động đóng BHXH, BHYT, BHTN cho người lao động (21.5%). </t>
+  </si>
+  <si>
+    <t>Khoản tiền này sẽ được chi trả theo ngày công làm việc thực tế trong tháng.</t>
+  </si>
+  <si>
+    <t>4.1. Quyền lợi</t>
+  </si>
+  <si>
+    <t>- Được làm việc theo hợp đồng thử việc và không bị phân biệt đối xử.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-  Hưởng lương phù hợp với trình độ kỹ năng nghề trên cơ sở thoả thuận với người sử dụng lao động; được bảo hộ lao động, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">làm việc trong điều kiện bảo đảm về an toàn lao động, vệ sinh lao động; nghỉ theo chế độ, nghỉ hằng năm có lương và được </t>
+  </si>
+  <si>
+    <t>hưởng phúc lợi tập thể.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Về thời gian báo trước khi muốn nghỉ việc: Trong thời gian thử việc mỗi bên có quyền hủy bỏ thỏa thuận thử việc mà không </t>
+  </si>
+  <si>
+    <t>cần báo trước và không phải bồi thường nếu việc làm thử không đạt yêu cầu mà hai bên đã thỏa thuận.</t>
+  </si>
+  <si>
+    <t>- Các quyền khác theo quy định của pháp luật.</t>
+  </si>
+  <si>
+    <t>4.2. Nghĩa vụ</t>
+  </si>
+  <si>
+    <t>- Tuân thủ nội quy lao động, các quy định về tác phong làm việc, trật tự an ninh, qui định về hút thuốc, phòng chống cháy nổ,</t>
+  </si>
+  <si>
+    <t>an toàn vệ sinh lao động, kỷ luật lao động …</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Tuân thủ lệnh điều hành sản xuất – kinh doanh, các yêu cầu / quy định về sản xuất, chất lượng, an toàn sản phẩm, các quy </t>
+  </si>
+  <si>
+    <t>định của khách hàng, của tập đoàn, các quy định của bộ phận.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Hoàn thành công việc được giao, thực hiện theo sự phân công yêu cầu của bộ phận, người quản lý. </t>
+  </si>
+  <si>
+    <t>- Bồi thường thiệt hại: Theo Nội quy công ty</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Về thuế: Người lao động chịu trách nhiệm nộp thuế thu nhập cá nhân của mình (nếu có). Trong bất kỳ hoàn cảnh nào, vì bất </t>
+  </si>
+  <si>
+    <t>cứ lý do gì, người lao động phải đảm bảo rằng Công ty sẽ không chịu thiệt hại nào phát sinh từ việc nộp thuế thu nhập cá nhân</t>
+  </si>
+  <si>
+    <t>của mình.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Ngoài những điều khoản nêu trong hợp đồng này, người lao động phải tuân thủ các quy định trong Nội quy của công ty, </t>
+  </si>
+  <si>
+    <t>Thỏa ước lao động tập thể và các quy chế khác.</t>
+  </si>
+  <si>
+    <t>ĐIỀU 5: NGHĨA VỤ VÀ QUYỀN HẠN CỦA NGƯỜI SỬ DỤNG LAO ĐỘNG</t>
+  </si>
+  <si>
+    <t>5.1. Quyền hạn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Người sử dụng lao động có các quyền sau: </t>
+  </si>
+  <si>
+    <t>- Tuyển dụng, bố trí, điều hành, điều chuyển lao động theo nhu cầu sản xuất, kinh doanh.</t>
+  </si>
+  <si>
+    <t>- Có quyền tạm hoãn, chấm dứt hợp đồng thử việc, kỷ luật người lao động theo quy định của pháp luật, thỏa ước lao động tập</t>
+  </si>
+  <si>
+    <t>thể và nội quy Công ty.</t>
+  </si>
+  <si>
+    <t>5.2. Nghĩa vụ</t>
+  </si>
+  <si>
+    <t>- Bảo đảm việc làm và thực hiện hợp đồng thử việc, tôn trọng danh dự, nhân phẩm của người lao động .</t>
+  </si>
+  <si>
+    <t>- Chịu trách nhiệm thanh toán đầy đủ, đúng hạn các chế độ và quyền lợi cho người lao động theo hợp đồng thử việc, thỏa ước</t>
+  </si>
+  <si>
+    <t>lao động tập thể.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ĐIỀU 6: ĐIỀU KHOẢN THI HÀNH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Những vấn đề về lao động không ghi trong hợp đồng này thì áp dụng theo quy định của Nội quy công ty, Thoả ước lao động </t>
+  </si>
+  <si>
+    <t>tập thể hoặc quy định của pháp luật có liên quan.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hợp đồng thử việc này được làm thành hai (02) bản có giá trị ngang nhau, mỗi bên giữ một (01) bản. Trong trường hợp có bất </t>
+  </si>
+  <si>
+    <t>kỳ sửa đổi, bổ sung thì hai bên sẽ ký kết phụ lục hợp đồng.</t>
+  </si>
+  <si>
+    <t>Chữ ký người lao động</t>
+  </si>
+  <si>
+    <t>Thay mặt Công ty CP Sản xuất Nam Thuận</t>
+  </si>
+  <si>
+    <t>(Ký và ghi rõ họ tên)</t>
+  </si>
+  <si>
+    <t>…………………………………………..</t>
+  </si>
+  <si>
+    <t>Người được uỷ quyền</t>
+  </si>
+  <si>
+    <t>Họ tên:</t>
+  </si>
+  <si>
+    <t>Vị trí: Trưởng phòng Hành chính Nhân sự</t>
+  </si>
+  <si>
+    <t>ĐIỀU 4: NGHĨA VỤ VÀ QUYỀN HẠN CỦA NGƯỜI LAO ĐỘNG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số CCCD: </t>
+  </si>
+  <si>
+    <t>Thủy Sơn, Phường Thủy Đường, TP Thủy Nguyên, TP Hải Phòng</t>
+  </si>
+  <si>
+    <t>- Địa điểm làm việc: + Thủy Sơn, Phường Thủy Đường, TP Thủy Nguyên, TP Hải Phòng</t>
+  </si>
+  <si>
+    <t>Địa chỉ: Thuỷ Sơn - Thuỷ Đường - Thuỷ Nguyên - Hải Phòng
 ĐT: 02253.642.408</t>
-  </si>
-  <si>
-    <t>Độc lập - Tự do - Hạnh phúc</t>
-  </si>
-  <si>
-    <t>------------------------</t>
-  </si>
-  <si>
-    <t>Số: PC/13362</t>
-  </si>
-  <si>
-    <t>Hải Phòng, ngày 20 tháng 06 năm 2024</t>
-  </si>
-  <si>
-    <t>HỢP ĐỒNG THỬ VIỆC</t>
-  </si>
-  <si>
-    <t>(Căn cứ vào BLLĐ 45/2019/QH 14 và NĐ 145/2020/NĐ-CP, TT 10/2020/TT-BLĐTBXH )</t>
-  </si>
-  <si>
-    <t>Chúng tôi, một bên là</t>
-  </si>
-  <si>
-    <t>Ông/Bà:</t>
-  </si>
-  <si>
-    <t>VŨ THỊ HIỀN</t>
-  </si>
-  <si>
-    <t>Quốc tịch:</t>
-  </si>
-  <si>
-    <t>VIỆT NAM</t>
-  </si>
-  <si>
-    <t>Chức vụ:</t>
-  </si>
-  <si>
-    <t>Trưởng phòng Hành chính Nhân sự</t>
-  </si>
-  <si>
-    <t>Sinh ngày:</t>
-  </si>
-  <si>
-    <t>05/09/1990           Giới tính: Nữ</t>
-  </si>
-  <si>
-    <t>Địa chỉ thường trú:</t>
-  </si>
-  <si>
-    <t>Quyết Tiến 3, An Thắng, An Lão, Hải Phòng</t>
-  </si>
-  <si>
-    <t>Số CCCD:</t>
-  </si>
-  <si>
-    <t>031190008508</t>
-  </si>
-  <si>
-    <t>Cấp ngày:</t>
-  </si>
-  <si>
-    <t>02/03/2022</t>
-  </si>
-  <si>
-    <t>Nơi cấp:</t>
-  </si>
-  <si>
-    <t>Cục cảnh sát</t>
-  </si>
-  <si>
-    <t>Đại diện cho:</t>
-  </si>
-  <si>
-    <t>Địa chỉ:</t>
-  </si>
-  <si>
-    <t>Thôn Rực Liễn, xã Thủy Sơn, huyện Thủy Nguyên, TP Hải Phòng</t>
-  </si>
-  <si>
-    <t>Điện thoại:</t>
-  </si>
-  <si>
-    <t>02253642408</t>
-  </si>
-  <si>
-    <t>Fax:</t>
-  </si>
-  <si>
-    <t>02253642407</t>
-  </si>
-  <si>
-    <t>Và một bên là:</t>
-  </si>
-  <si>
-    <t>NGÔ THỊ THỦY</t>
-  </si>
-  <si>
-    <t>VIỆT NAM</t>
-  </si>
-  <si>
-    <t>20/12/2000</t>
-  </si>
-  <si>
-    <t>Giới tính:</t>
-  </si>
-  <si>
-    <t>Nữ</t>
-  </si>
-  <si>
-    <t>Duẩn Khê, Long Xuyên, Kinh Môn, Hải Dương</t>
-  </si>
-  <si>
-    <t>23/02/2024</t>
-  </si>
-  <si>
-    <t>Thỏa thuận ký kết hợp đồng thử việc và cam kết làm đúng những điều khoản sau đây:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ĐIỀU 1: HỢP ĐỒNG VÀ CÔNG VIỆC HỢP ĐỒNG </t>
-  </si>
-  <si>
-    <t>- Thời hạn thử việc:</t>
-  </si>
-  <si>
-    <t>Thử việc 30 ngày</t>
-  </si>
-  <si>
-    <t>Từ ngày 20 tháng 06 năm 2024 đến hết ngày 19 tháng 07 năm 2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Theo kết quả đánh giá sau thử việc, người lao động đạt yêu cầu, sẽ được ký hợp đồng lao động với Công ty. </t>
-  </si>
-  <si>
-    <t>Trường hợp không qua thử việc, người lao động sẽ được thanh toán lương và các khoản trợ cấp khác nếu có đến ngày làm việc</t>
-  </si>
-  <si>
-    <t>cuối cùng.</t>
-  </si>
-  <si>
-    <t>- Địa điểm làm việc: + Thôn Rực Liễn, xã Thủy Sơn, huyện Thủy Nguyên, TP Hải Phòng</t>
-  </si>
-  <si>
-    <t>+ Các địa điểm khác theo sự phân công của Công ty theo yêu cầu công việc</t>
-  </si>
-  <si>
-    <t>- Chức danh công việc:</t>
-  </si>
-  <si>
-    <t>Công nhân thử việc may</t>
-  </si>
-  <si>
-    <t>- Công việc phải làm:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thực hiện theo bảng mô tả công việc và Các công việc liên quan khác dưới sự phân công  của người </t>
-  </si>
-  <si>
-    <t>quản lý trực tiếp.</t>
-  </si>
-  <si>
-    <t>ĐIỀU 2: THỜI GIAN LÀM VIỆC, THỜI GIAN NGHỈ NGƠI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Thời gian làm việc, làm thêm giờ và thời gian nghỉ ngơi theo nội quy, thỏa ước lao động tập thể của công ty và quy định của </t>
-  </si>
-  <si>
-    <t>pháp luật.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Nghỉ phép năm: Công ty không giải quyết và chi trả phép năm trong thời gian thử việc. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Nghỉ lễ, Tết, việc riêng có hưởng lương: theo quy định của pháp luật và nội quy của công ty. </t>
-  </si>
-  <si>
-    <t>ĐIỀU 3: TIỀN LƯƠNG VÀ CÁC CHẾ ĐỘ PHÚC LỢI</t>
-  </si>
-  <si>
-    <t>1. TIỀN LƯƠNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Mức lương: </t>
-  </si>
-  <si>
-    <t>5,211,000 VNĐ/ tháng</t>
-  </si>
-  <si>
-    <t>- Phụ cấp lương:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Các khoản bổ sung khác: </t>
-  </si>
-  <si>
-    <t>Theo Thỏa ước lao động tập thể, và các thông báo, quy định cụ thể của Công ty (nếu có)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tiền lương được trả sau khi làm đủ số ngày công mỗi tháng dương lịch (người lao động không làm đủ ngày công trong một (01) </t>
-  </si>
-  <si>
-    <t>tháng thì tiền lương được hưởng sẽ là mức lương trừ đi tiền lương ngày nghỉ).</t>
-  </si>
-  <si>
-    <t>2. CÁC CHẾ ĐỘ PHÚC LỢI KHÁC</t>
-  </si>
-  <si>
-    <t>- Tiền hỗ trợ xăng xe/ nhà ở, con nhỏ, thăm hỏi hiếu hỉ, ...:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">thực hiện theo Thỏa ước lao động tập thể và các thông báo </t>
-  </si>
-  <si>
-    <t>cụ thể của Công ty.</t>
-  </si>
-  <si>
-    <t>3.  HÌNH THỨC TRẢ LƯƠNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Người lao động được trả lương theo lương thời gian và theo lương tháng. Hàng tháng tiền lương được chuyển khoản trực tiếp </t>
-  </si>
-  <si>
-    <t>vào tài khoản cá nhân của người lao động. Người lao động được nhận phiếu lương từng tháng từ phòng kế toán.</t>
-  </si>
-  <si>
-    <t>4. NGÀY TRẢ LƯƠNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Người lao động được trả lương theo tháng vào ngày 10 của tháng tiếp theo. Nếu ngày trả lương trùng vào ngày chủ nhật thì </t>
-  </si>
-  <si>
-    <t xml:space="preserve">lương sẽ được trả vào ngày 11. Trường hợp đặc biệt nếu ngày trả lương rơi vào dịp nghỉ lễ, Tết thì công ty sẽ sắp xếp thời gian </t>
-  </si>
-  <si>
-    <t>thanh toán phù hợp và có thông báo trước cho người lao động.</t>
-  </si>
-  <si>
-    <t>5. TRANG BỊ BẢO HỘ LAO ĐỘNG</t>
-  </si>
-  <si>
-    <t>Người lao động được cấp phát trang thiết bị bảo hộ lao động theo chính sách cấp phát bảo hộ lao động của công ty.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6. BẢO HIỂM XÃ HỘI, BẢO HIỂM THẤT NGHIỆP, BẢO HIỂM Y TẾ, BẢO HIỂM TAI NẠN LAO ĐỘNG - BỆNH </t>
-  </si>
-  <si>
-    <t>NGHỀ NGHIỆP</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Người lao động ký hợp đồng thử việc không tham gia bảo hiểm trong thời gian thử việc và sẽ được trả thêm cùng lúc với kỳ trả </t>
-  </si>
-  <si>
-    <t xml:space="preserve">lương một khoản tiền tương đương với mức người sử dụng lao động đóng BHXH, BHYT, BHTN cho người lao động (21.5%). </t>
-  </si>
-  <si>
-    <t>Khoản tiền này sẽ được chi trả theo ngày công làm việc thực tế trong tháng.</t>
-  </si>
-  <si>
-    <t>4.1. Quyền lợi</t>
-  </si>
-  <si>
-    <t>- Được làm việc theo hợp đồng thử việc và không bị phân biệt đối xử.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-  Hưởng lương phù hợp với trình độ kỹ năng nghề trên cơ sở thoả thuận với người sử dụng lao động; được bảo hộ lao động, </t>
-  </si>
-  <si>
-    <t xml:space="preserve">làm việc trong điều kiện bảo đảm về an toàn lao động, vệ sinh lao động; nghỉ theo chế độ, nghỉ hằng năm có lương và được </t>
-  </si>
-  <si>
-    <t>hưởng phúc lợi tập thể.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Về thời gian báo trước khi muốn nghỉ việc: Trong thời gian thử việc mỗi bên có quyền hủy bỏ thỏa thuận thử việc mà không </t>
-  </si>
-  <si>
-    <t>cần báo trước và không phải bồi thường nếu việc làm thử không đạt yêu cầu mà hai bên đã thỏa thuận.</t>
-  </si>
-  <si>
-    <t>- Các quyền khác theo quy định của pháp luật.</t>
-  </si>
-  <si>
-    <t>4.2. Nghĩa vụ</t>
-  </si>
-  <si>
-    <t>- Tuân thủ nội quy lao động, các quy định về tác phong làm việc, trật tự an ninh, qui định về hút thuốc, phòng chống cháy nổ,</t>
-  </si>
-  <si>
-    <t>an toàn vệ sinh lao động, kỷ luật lao động …</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Tuân thủ lệnh điều hành sản xuất – kinh doanh, các yêu cầu / quy định về sản xuất, chất lượng, an toàn sản phẩm, các quy </t>
-  </si>
-  <si>
-    <t>định của khách hàng, của tập đoàn, các quy định của bộ phận.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Hoàn thành công việc được giao, thực hiện theo sự phân công yêu cầu của bộ phận, người quản lý. </t>
-  </si>
-  <si>
-    <t>- Bồi thường thiệt hại: Theo Nội quy công ty</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Về thuế: Người lao động chịu trách nhiệm nộp thuế thu nhập cá nhân của mình (nếu có). Trong bất kỳ hoàn cảnh nào, vì bất </t>
-  </si>
-  <si>
-    <t>cứ lý do gì, người lao động phải đảm bảo rằng Công ty sẽ không chịu thiệt hại nào phát sinh từ việc nộp thuế thu nhập cá nhân</t>
-  </si>
-  <si>
-    <t>của mình.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">- Ngoài những điều khoản nêu trong hợp đồng này, người lao động phải tuân thủ các quy định trong Nội quy của công ty, </t>
-  </si>
-  <si>
-    <t>Thỏa ước lao động tập thể và các quy chế khác.</t>
-  </si>
-  <si>
-    <t>ĐIỀU 5: NGHĨA VỤ VÀ QUYỀN HẠN CỦA NGƯỜI SỬ DỤNG LAO ĐỘNG</t>
-  </si>
-  <si>
-    <t>5.1. Quyền hạn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Người sử dụng lao động có các quyền sau: </t>
-  </si>
-  <si>
-    <t>- Tuyển dụng, bố trí, điều hành, điều chuyển lao động theo nhu cầu sản xuất, kinh doanh.</t>
-  </si>
-  <si>
-    <t>- Có quyền tạm hoãn, chấm dứt hợp đồng thử việc, kỷ luật người lao động theo quy định của pháp luật, thỏa ước lao động tập</t>
-  </si>
-  <si>
-    <t>thể và nội quy Công ty.</t>
-  </si>
-  <si>
-    <t>5.2. Nghĩa vụ</t>
-  </si>
-  <si>
-    <t>- Bảo đảm việc làm và thực hiện hợp đồng thử việc, tôn trọng danh dự, nhân phẩm của người lao động .</t>
-  </si>
-  <si>
-    <t>- Chịu trách nhiệm thanh toán đầy đủ, đúng hạn các chế độ và quyền lợi cho người lao động theo hợp đồng thử việc, thỏa ước</t>
-  </si>
-  <si>
-    <t>lao động tập thể.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ĐIỀU 6: ĐIỀU KHOẢN THI HÀNH </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Những vấn đề về lao động không ghi trong hợp đồng này thì áp dụng theo quy định của Nội quy công ty, Thoả ước lao động </t>
-  </si>
-  <si>
-    <t>tập thể hoặc quy định của pháp luật có liên quan.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hợp đồng thử việc này được làm thành hai (02) bản có giá trị ngang nhau, mỗi bên giữ một (01) bản. Trong trường hợp có bất </t>
-  </si>
-  <si>
-    <t>kỳ sửa đổi, bổ sung thì hai bên sẽ ký kết phụ lục hợp đồng.</t>
-  </si>
-  <si>
-    <t>Chữ ký người lao động</t>
-  </si>
-  <si>
-    <t>Thay mặt Công ty CP Sản xuất Nam Thuận</t>
-  </si>
-  <si>
-    <t>(Ký và ghi rõ họ tên)</t>
-  </si>
-  <si>
-    <t>…………………………………………..</t>
-  </si>
-  <si>
-    <t>Người được uỷ quyền</t>
-  </si>
-  <si>
-    <t>Họ tên:</t>
-  </si>
-  <si>
-    <t>Vị trí: Trưởng phòng Hành chính Nhân sự</t>
-  </si>
-  <si>
-    <t>ĐIỀU 4: NGHĨA VỤ VÀ QUYỀN HẠN CỦA NGƯỜI LAO ĐỘNG</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Số CCCD: </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000000000000"/>
   </numFmts>
@@ -529,7 +530,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -580,6 +581,9 @@
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1060,14 +1064,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
   <dimension ref="A1:X111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:M16"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1114,7 +1118,7 @@
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="7" t="s">
-        <v>2</v>
+        <v>131</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -1124,7 +1128,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
       <c r="M2" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N2" s="9"/>
       <c r="O2" s="9"/>
@@ -1144,7 +1148,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="10" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
@@ -1154,7 +1158,7 @@
       <c r="K3" s="10"/>
       <c r="L3" s="10"/>
       <c r="M3" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
@@ -1174,7 +1178,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="10" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -1184,7 +1188,7 @@
       <c r="K4" s="10"/>
       <c r="L4" s="10"/>
       <c r="M4" s="10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N4" s="10"/>
       <c r="O4" s="10"/>
@@ -1226,7 +1230,7 @@
     </row>
     <row r="6" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
@@ -1254,7 +1258,7 @@
     </row>
     <row r="7" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1309,7 +1313,7 @@
     <row r="9" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9" s="13"/>
       <c r="D9" s="13"/>
@@ -1337,11 +1341,11 @@
     <row r="10" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C10" s="14"/>
       <c r="D10" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1353,12 +1357,12 @@
       <c r="L10" s="13"/>
       <c r="M10" s="13"/>
       <c r="N10" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O10" s="14"/>
       <c r="P10" s="14"/>
       <c r="Q10" s="13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
@@ -1371,11 +1375,11 @@
     <row r="11" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="13" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -1387,12 +1391,12 @@
       <c r="L11" s="13"/>
       <c r="M11" s="13"/>
       <c r="N11" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O11" s="14"/>
       <c r="P11" s="14"/>
       <c r="Q11" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="R11" s="14"/>
       <c r="S11" s="14"/>
@@ -1405,13 +1409,13 @@
     <row r="12" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
       <c r="E12" s="14"/>
       <c r="F12" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -1435,33 +1439,33 @@
     <row r="13" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
       <c r="E13" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F13" s="15"/>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" s="14"/>
       <c r="K13" s="14"/>
       <c r="L13" s="14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="M13" s="14"/>
       <c r="N13" s="14"/>
       <c r="O13" s="14"/>
       <c r="P13" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q13" s="14"/>
       <c r="R13" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S13" s="14"/>
       <c r="T13" s="14"/>
@@ -1473,7 +1477,7 @@
     <row r="14" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="14"/>
@@ -1503,11 +1507,11 @@
     <row r="15" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="14" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14"/>
@@ -1533,12 +1537,12 @@
     <row r="16" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
       <c r="E16" s="15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F16" s="15"/>
       <c r="G16" s="15"/>
@@ -1549,11 +1553,11 @@
       <c r="L16" s="15"/>
       <c r="M16" s="15"/>
       <c r="N16" s="14" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="O16" s="14"/>
       <c r="P16" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
@@ -1567,7 +1571,7 @@
     <row r="17" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C17" s="13"/>
       <c r="D17" s="13"/>
@@ -1595,11 +1599,11 @@
     <row r="18" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="13"/>
@@ -1611,12 +1615,12 @@
       <c r="L18" s="13"/>
       <c r="M18" s="13"/>
       <c r="N18" s="14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O18" s="14"/>
       <c r="P18" s="14"/>
       <c r="Q18" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
@@ -1629,12 +1633,12 @@
     <row r="19" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="14"/>
       <c r="E19" s="14" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
@@ -1645,12 +1649,12 @@
       <c r="L19" s="14"/>
       <c r="M19" s="14"/>
       <c r="N19" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="O19" s="14"/>
       <c r="P19" s="14"/>
       <c r="Q19" s="14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="R19" s="14"/>
       <c r="S19" s="14"/>
@@ -1663,13 +1667,13 @@
     <row r="20" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="14"/>
       <c r="D20" s="14"/>
       <c r="E20" s="14"/>
       <c r="F20" s="14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="G20" s="14"/>
       <c r="H20" s="14"/>
@@ -1693,7 +1697,7 @@
     <row r="21" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C21" s="9"/>
       <c r="D21" s="16">
@@ -1704,22 +1708,22 @@
       <c r="G21" s="16"/>
       <c r="H21" s="16"/>
       <c r="I21" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="14"/>
       <c r="L21" s="14" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M21" s="14"/>
       <c r="N21" s="14"/>
       <c r="O21" s="14"/>
       <c r="P21" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="Q21" s="14"/>
       <c r="R21" s="14" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="S21" s="14"/>
       <c r="T21" s="14"/>
@@ -1731,7 +1735,7 @@
     <row r="22" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="14"/>
@@ -1759,7 +1763,7 @@
     <row r="23" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C23" s="15"/>
       <c r="D23" s="15"/>
@@ -1787,7 +1791,7 @@
     <row r="24" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C24" s="13"/>
       <c r="D24" s="13"/>
@@ -1815,7 +1819,7 @@
     <row r="25" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="14" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C25" s="14"/>
       <c r="D25" s="14"/>
@@ -1823,7 +1827,7 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I25" s="14"/>
       <c r="J25" s="14"/>
@@ -1845,7 +1849,7 @@
     <row r="26" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C26" s="14"/>
       <c r="D26" s="14"/>
@@ -1873,7 +1877,7 @@
     <row r="27" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C27" s="14"/>
       <c r="D27" s="14"/>
@@ -1901,7 +1905,7 @@
     <row r="28" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="14" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C28" s="14"/>
       <c r="D28" s="14"/>
@@ -1929,7 +1933,7 @@
     <row r="29" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C29" s="14"/>
       <c r="D29" s="14"/>
@@ -1956,8 +1960,8 @@
     </row>
     <row r="30" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
-      <c r="B30" s="14" t="s">
-        <v>49</v>
+      <c r="B30" s="17" t="s">
+        <v>130</v>
       </c>
       <c r="C30" s="14"/>
       <c r="D30" s="14"/>
@@ -1989,7 +1993,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="14" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G31" s="14"/>
       <c r="H31" s="14"/>
@@ -2013,44 +2017,44 @@
     <row r="32" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C32" s="14"/>
       <c r="D32" s="14"/>
       <c r="E32" s="14"/>
       <c r="F32" s="14"/>
-      <c r="G32" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="17"/>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="17"/>
-      <c r="X32" s="17"/>
+      <c r="G32" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="18"/>
+      <c r="L32" s="18"/>
+      <c r="M32" s="18"/>
+      <c r="N32" s="18"/>
+      <c r="O32" s="18"/>
+      <c r="P32" s="18"/>
+      <c r="Q32" s="18"/>
+      <c r="R32" s="18"/>
+      <c r="S32" s="18"/>
+      <c r="T32" s="18"/>
+      <c r="U32" s="18"/>
+      <c r="V32" s="18"/>
+      <c r="W32" s="18"/>
+      <c r="X32" s="18"/>
     </row>
     <row r="33" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C33" s="14"/>
       <c r="D33" s="14"/>
       <c r="E33" s="14"/>
       <c r="F33" s="14"/>
       <c r="G33" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -2073,7 +2077,7 @@
     <row r="34" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C34" s="14"/>
       <c r="D34" s="14"/>
@@ -2101,7 +2105,7 @@
     <row r="35" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C35" s="13"/>
       <c r="D35" s="13"/>
@@ -2129,7 +2133,7 @@
     <row r="36" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="14" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C36" s="14"/>
       <c r="D36" s="14"/>
@@ -2157,7 +2161,7 @@
     <row r="37" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="14" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C37" s="14"/>
       <c r="D37" s="14"/>
@@ -2185,7 +2189,7 @@
     <row r="38" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="14" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
@@ -2213,7 +2217,7 @@
     <row r="39" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="14" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C39" s="14"/>
       <c r="D39" s="14"/>
@@ -2267,7 +2271,7 @@
     <row r="41" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C41" s="13"/>
       <c r="D41" s="13"/>
@@ -2294,70 +2298,70 @@
     </row>
     <row r="42" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="B42" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C42" s="18"/>
-      <c r="D42" s="18"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="O42" s="18"/>
-      <c r="P42" s="18"/>
-      <c r="Q42" s="18"/>
-      <c r="R42" s="18"/>
-      <c r="S42" s="18"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
-      <c r="W42" s="18"/>
-      <c r="X42" s="18"/>
+      <c r="B42" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="19"/>
+      <c r="F42" s="19"/>
+      <c r="G42" s="19"/>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="19"/>
+      <c r="V42" s="19"/>
+      <c r="W42" s="19"/>
+      <c r="X42" s="19"/>
     </row>
     <row r="43" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C43" s="13"/>
       <c r="D43" s="13"/>
       <c r="E43" s="13"/>
       <c r="F43" s="13"/>
-      <c r="G43" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="H43" s="17"/>
-      <c r="I43" s="17"/>
-      <c r="J43" s="17"/>
-      <c r="K43" s="17"/>
-      <c r="L43" s="17"/>
-      <c r="M43" s="17"/>
-      <c r="N43" s="17"/>
-      <c r="O43" s="17"/>
-      <c r="P43" s="17"/>
-      <c r="Q43" s="17"/>
-      <c r="R43" s="17"/>
-      <c r="S43" s="17"/>
-      <c r="T43" s="17"/>
-      <c r="U43" s="17"/>
-      <c r="V43" s="17"/>
-      <c r="W43" s="17"/>
-      <c r="X43" s="17"/>
+      <c r="G43" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="18"/>
+      <c r="L43" s="18"/>
+      <c r="M43" s="18"/>
+      <c r="N43" s="18"/>
+      <c r="O43" s="18"/>
+      <c r="P43" s="18"/>
+      <c r="Q43" s="18"/>
+      <c r="R43" s="18"/>
+      <c r="S43" s="18"/>
+      <c r="T43" s="18"/>
+      <c r="U43" s="18"/>
+      <c r="V43" s="18"/>
+      <c r="W43" s="18"/>
+      <c r="X43" s="18"/>
     </row>
     <row r="44" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
-      <c r="B44" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
+      <c r="B44" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
       <c r="F44" s="2"/>
       <c r="G44" s="9"/>
       <c r="H44" s="9"/>
@@ -2407,7 +2411,7 @@
     <row r="46" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="13" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
@@ -2415,7 +2419,7 @@
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>
       <c r="H46" s="14" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="I46" s="14"/>
       <c r="J46" s="14"/>
@@ -2437,7 +2441,7 @@
     <row r="47" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="14" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C47" s="14"/>
       <c r="D47" s="14"/>
@@ -2465,7 +2469,7 @@
     <row r="48" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="14" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C48" s="14"/>
       <c r="D48" s="14"/>
@@ -2493,7 +2497,7 @@
     <row r="49" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C49" s="13"/>
       <c r="D49" s="13"/>
@@ -2521,7 +2525,7 @@
     <row r="50" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C50" s="13"/>
       <c r="D50" s="13"/>
@@ -2534,7 +2538,7 @@
       <c r="K50" s="13"/>
       <c r="L50" s="13"/>
       <c r="M50" s="14" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="N50" s="14"/>
       <c r="O50" s="14"/>
@@ -2551,7 +2555,7 @@
     <row r="51" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="14" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14"/>
@@ -2579,7 +2583,7 @@
     <row r="52" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C52" s="13"/>
       <c r="D52" s="13"/>
@@ -2607,7 +2611,7 @@
     <row r="53" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="14" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14"/>
@@ -2635,7 +2639,7 @@
     <row r="54" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C54" s="14"/>
       <c r="D54" s="14"/>
@@ -2663,7 +2667,7 @@
     <row r="55" spans="1:24" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C55" s="13"/>
       <c r="D55" s="13"/>
@@ -2691,7 +2695,7 @@
     <row r="56" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="14"/>
@@ -2719,7 +2723,7 @@
     <row r="57" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="14" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="14"/>
@@ -2747,7 +2751,7 @@
     <row r="58" spans="1:24" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C58" s="14"/>
       <c r="D58" s="14"/>
@@ -2775,7 +2779,7 @@
     <row r="59" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
@@ -2803,7 +2807,7 @@
     <row r="60" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="14" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C60" s="14"/>
       <c r="D60" s="14"/>
@@ -2831,7 +2835,7 @@
     <row r="61" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C61" s="13"/>
       <c r="D61" s="13"/>
@@ -2859,7 +2863,7 @@
     <row r="62" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
@@ -2887,7 +2891,7 @@
     <row r="63" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="14" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C63" s="14"/>
       <c r="D63" s="14"/>
@@ -2915,7 +2919,7 @@
     <row r="64" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="14" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C64" s="14"/>
       <c r="D64" s="14"/>
@@ -2943,7 +2947,7 @@
     <row r="65" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="14" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C65" s="14"/>
       <c r="D65" s="14"/>
@@ -2971,7 +2975,7 @@
     <row r="66" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C66" s="13"/>
       <c r="D66" s="13"/>
@@ -2999,7 +3003,7 @@
     <row r="67" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C67" s="13"/>
       <c r="D67" s="13"/>
@@ -3027,7 +3031,7 @@
     <row r="68" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="14" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C68" s="14"/>
       <c r="D68" s="14"/>
@@ -3055,7 +3059,7 @@
     <row r="69" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C69" s="14"/>
       <c r="D69" s="14"/>
@@ -3083,7 +3087,7 @@
     <row r="70" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="14" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C70" s="14"/>
       <c r="D70" s="14"/>
@@ -3111,7 +3115,7 @@
     <row r="71" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="14" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C71" s="14"/>
       <c r="D71" s="14"/>
@@ -3139,7 +3143,7 @@
     <row r="72" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="14" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C72" s="14"/>
       <c r="D72" s="14"/>
@@ -3167,7 +3171,7 @@
     <row r="73" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="14" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C73" s="14"/>
       <c r="D73" s="14"/>
@@ -3195,7 +3199,7 @@
     <row r="74" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="14" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C74" s="14"/>
       <c r="D74" s="14"/>
@@ -3222,36 +3226,36 @@
     </row>
     <row r="75" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
-      <c r="B75" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="C75" s="18"/>
-      <c r="D75" s="18"/>
-      <c r="E75" s="18"/>
-      <c r="F75" s="18"/>
-      <c r="G75" s="18"/>
-      <c r="H75" s="18"/>
-      <c r="I75" s="18"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="18"/>
-      <c r="L75" s="18"/>
-      <c r="M75" s="18"/>
-      <c r="N75" s="18"/>
-      <c r="O75" s="18"/>
-      <c r="P75" s="18"/>
-      <c r="Q75" s="18"/>
-      <c r="R75" s="18"/>
-      <c r="S75" s="18"/>
-      <c r="T75" s="18"/>
-      <c r="U75" s="18"/>
-      <c r="V75" s="18"/>
-      <c r="W75" s="18"/>
-      <c r="X75" s="18"/>
+      <c r="B75" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="C75" s="19"/>
+      <c r="D75" s="19"/>
+      <c r="E75" s="19"/>
+      <c r="F75" s="19"/>
+      <c r="G75" s="19"/>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="19"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="19"/>
+      <c r="M75" s="19"/>
+      <c r="N75" s="19"/>
+      <c r="O75" s="19"/>
+      <c r="P75" s="19"/>
+      <c r="Q75" s="19"/>
+      <c r="R75" s="19"/>
+      <c r="S75" s="19"/>
+      <c r="T75" s="19"/>
+      <c r="U75" s="19"/>
+      <c r="V75" s="19"/>
+      <c r="W75" s="19"/>
+      <c r="X75" s="19"/>
     </row>
     <row r="76" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="14" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C76" s="14"/>
       <c r="D76" s="14"/>
@@ -3279,7 +3283,7 @@
     <row r="77" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="14" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C77" s="14"/>
       <c r="D77" s="14"/>
@@ -3307,7 +3311,7 @@
     <row r="78" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="2"/>
       <c r="B78" s="14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C78" s="14"/>
       <c r="D78" s="14"/>
@@ -3335,7 +3339,7 @@
     <row r="79" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2"/>
       <c r="B79" s="14" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C79" s="14"/>
       <c r="D79" s="14"/>
@@ -3363,7 +3367,7 @@
     <row r="80" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2"/>
       <c r="B80" s="14" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C80" s="14"/>
       <c r="D80" s="14"/>
@@ -3391,7 +3395,7 @@
     <row r="81" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2"/>
       <c r="B81" s="14" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C81" s="14"/>
       <c r="D81" s="14"/>
@@ -3419,7 +3423,7 @@
     <row r="82" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="2"/>
       <c r="B82" s="14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C82" s="14"/>
       <c r="D82" s="14"/>
@@ -3447,7 +3451,7 @@
     <row r="83" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="2"/>
       <c r="B83" s="14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C83" s="14"/>
       <c r="D83" s="14"/>
@@ -3475,7 +3479,7 @@
     <row r="84" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2"/>
       <c r="B84" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C84" s="14"/>
       <c r="D84" s="14"/>
@@ -3503,7 +3507,7 @@
     <row r="85" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2"/>
       <c r="B85" s="14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C85" s="14"/>
       <c r="D85" s="14"/>
@@ -3531,7 +3535,7 @@
     <row r="86" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2"/>
       <c r="B86" s="14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C86" s="14"/>
       <c r="D86" s="14"/>
@@ -3559,7 +3563,7 @@
     <row r="87" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2"/>
       <c r="B87" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C87" s="13"/>
       <c r="D87" s="13"/>
@@ -3587,7 +3591,7 @@
     <row r="88" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2"/>
       <c r="B88" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C88" s="13"/>
       <c r="D88" s="13"/>
@@ -3615,7 +3619,7 @@
     <row r="89" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="2"/>
       <c r="B89" s="14" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C89" s="14"/>
       <c r="D89" s="14"/>
@@ -3643,7 +3647,7 @@
     <row r="90" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2"/>
       <c r="B90" s="14" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C90" s="14"/>
       <c r="D90" s="14"/>
@@ -3671,7 +3675,7 @@
     <row r="91" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2"/>
       <c r="B91" s="14" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C91" s="14"/>
       <c r="D91" s="14"/>
@@ -3699,7 +3703,7 @@
     <row r="92" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2"/>
       <c r="B92" s="14" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C92" s="14"/>
       <c r="D92" s="14"/>
@@ -3727,7 +3731,7 @@
     <row r="93" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="2"/>
       <c r="B93" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C93" s="13"/>
       <c r="D93" s="13"/>
@@ -3755,7 +3759,7 @@
     <row r="94" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="2"/>
       <c r="B94" s="14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C94" s="14"/>
       <c r="D94" s="14"/>
@@ -3783,7 +3787,7 @@
     <row r="95" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2"/>
       <c r="B95" s="14" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C95" s="14"/>
       <c r="D95" s="14"/>
@@ -3811,7 +3815,7 @@
     <row r="96" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2"/>
       <c r="B96" s="14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C96" s="14"/>
       <c r="D96" s="14"/>
@@ -3839,7 +3843,7 @@
     <row r="97" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2"/>
       <c r="B97" s="13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C97" s="13"/>
       <c r="D97" s="13"/>
@@ -3867,7 +3871,7 @@
     <row r="98" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2"/>
       <c r="B98" s="14" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C98" s="14"/>
       <c r="D98" s="14"/>
@@ -3895,7 +3899,7 @@
     <row r="99" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2"/>
       <c r="B99" s="14" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C99" s="14"/>
       <c r="D99" s="14"/>
@@ -3923,7 +3927,7 @@
     <row r="100" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="2"/>
       <c r="B100" s="14" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C100" s="14"/>
       <c r="D100" s="14"/>
@@ -3951,7 +3955,7 @@
     <row r="101" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2"/>
       <c r="B101" s="14" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C101" s="14"/>
       <c r="D101" s="14"/>
@@ -3978,38 +3982,38 @@
     </row>
     <row r="102" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2"/>
-      <c r="B102" s="20" t="s">
-        <v>123</v>
-      </c>
-      <c r="C102" s="20"/>
-      <c r="D102" s="20"/>
-      <c r="E102" s="20"/>
-      <c r="F102" s="20"/>
-      <c r="G102" s="20"/>
-      <c r="H102" s="20"/>
-      <c r="I102" s="20"/>
-      <c r="J102" s="20"/>
-      <c r="K102" s="20"/>
-      <c r="L102" s="20"/>
-      <c r="M102" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="N102" s="20"/>
-      <c r="O102" s="20"/>
-      <c r="P102" s="20"/>
-      <c r="Q102" s="20"/>
-      <c r="R102" s="20"/>
-      <c r="S102" s="20"/>
-      <c r="T102" s="20"/>
-      <c r="U102" s="20"/>
-      <c r="V102" s="20"/>
-      <c r="W102" s="20"/>
-      <c r="X102" s="20"/>
+      <c r="B102" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="C102" s="21"/>
+      <c r="D102" s="21"/>
+      <c r="E102" s="21"/>
+      <c r="F102" s="21"/>
+      <c r="G102" s="21"/>
+      <c r="H102" s="21"/>
+      <c r="I102" s="21"/>
+      <c r="J102" s="21"/>
+      <c r="K102" s="21"/>
+      <c r="L102" s="21"/>
+      <c r="M102" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="N102" s="21"/>
+      <c r="O102" s="21"/>
+      <c r="P102" s="21"/>
+      <c r="Q102" s="21"/>
+      <c r="R102" s="21"/>
+      <c r="S102" s="21"/>
+      <c r="T102" s="21"/>
+      <c r="U102" s="21"/>
+      <c r="V102" s="21"/>
+      <c r="W102" s="21"/>
+      <c r="X102" s="21"/>
     </row>
     <row r="103" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2"/>
       <c r="B103" s="10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C103" s="10"/>
       <c r="D103" s="10"/>
@@ -4143,7 +4147,7 @@
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E108" s="14"/>
       <c r="F108" s="14"/>
@@ -4156,7 +4160,7 @@
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
       <c r="O108" s="14" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="P108" s="14"/>
       <c r="Q108" s="14"/>
@@ -4184,7 +4188,7 @@
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" s="14" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="P109" s="14"/>
       <c r="Q109" s="14"/>
@@ -4212,11 +4216,11 @@
       <c r="M110" s="2"/>
       <c r="N110" s="2"/>
       <c r="O110" s="14" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="P110" s="14"/>
       <c r="Q110" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="R110" s="13"/>
       <c r="S110" s="13"/>
@@ -4242,7 +4246,7 @@
       <c r="M111" s="2"/>
       <c r="N111" s="2"/>
       <c r="O111" s="14" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="P111" s="14"/>
       <c r="Q111" s="14"/>
@@ -4411,7 +4415,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <ignoredErrors>
-    <ignoredError sqref="A1:Y15 A67:Y112 A66 C66:Y66 A23:Y31 A21 I21:Y21 A45:Y65 A44:F44 K44:M44 Y44 A33:Y43 A32:G32 Y32 A17:Y20 A16 E16:Y16" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:Y1 A67:Y112 A66 C66:Y66 A23:Y29 A21 I21:Y21 A45:Y65 A44:F44 K44:M44 Y44 A33:Y43 A32:G32 Y32 A17:Y20 A16 E16:Y16 A3:Y14 A2:D2 M2:Y2 A15:C15 Y15 A31:Y31 A30 Y30" numberStoredAsText="1"/>
   </ignoredErrors>
   <drawing r:id="rId2"/>
 </worksheet>
